--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_8_36.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_8_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2282064.254425338</v>
+        <v>2281337.655554112</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5851605.615330299</v>
+        <v>5851605.615330302</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>864456.6793124479</v>
+        <v>864456.6793124474</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7439105.023125571</v>
+        <v>7439105.023125572</v>
       </c>
     </row>
     <row r="11">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6.11896786784456</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C2" t="n">
         <v>6.023344779862555</v>
       </c>
       <c r="D2" t="n">
-        <v>328.1229395778278</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E2" t="n">
-        <v>410.1968133282722</v>
+        <v>10.19681332827224</v>
       </c>
       <c r="F2" t="n">
-        <v>416.8201079258493</v>
+        <v>16.8201079258493</v>
       </c>
       <c r="G2" t="n">
-        <v>404.6410012660961</v>
+        <v>4.641001266096112</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,7 +712,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>19.62762385192476</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="3">
@@ -740,7 +740,7 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C3" t="n">
-        <v>50.00038550216601</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D3" t="n">
         <v>115.7281862028015</v>
@@ -755,7 +755,7 @@
         <v>105.9202115588047</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>70.03974083464111</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -788,13 +788,13 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>106.9101097868343</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>157.7484451748619</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>111.9640790906742</v>
       </c>
       <c r="V3" t="n">
         <v>211.5744117368965</v>
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>78.79525868591848</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -867,22 +867,22 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
-        <v>158.0934960143656</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>222.4883416251229</v>
@@ -895,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6.11896786784456</v>
+        <v>405.2563318232224</v>
       </c>
       <c r="C5" t="n">
-        <v>394.540465441406</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D5" t="n">
         <v>0.4192906078700389</v>
       </c>
       <c r="E5" t="n">
-        <v>410.1968133282722</v>
+        <v>10.19681332827224</v>
       </c>
       <c r="F5" t="n">
-        <v>416.8201079258493</v>
+        <v>16.8201079258493</v>
       </c>
       <c r="G5" t="n">
-        <v>404.6410012660961</v>
+        <v>4.641001266096112</v>
       </c>
       <c r="H5" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>85.48824505609757</v>
@@ -946,16 +946,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="6">
@@ -977,7 +977,7 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C6" t="n">
-        <v>132.6551205385439</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D6" t="n">
         <v>115.7281862028015</v>
@@ -1028,7 +1028,7 @@
         <v>106.9101097868343</v>
       </c>
       <c r="T6" t="n">
-        <v>157.7484451748619</v>
+        <v>157.748445174862</v>
       </c>
       <c r="U6" t="n">
         <v>195.3773027531635</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1104,25 +1104,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
-        <v>10.32284812109752</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
-        <v>276.2789678462144</v>
+        <v>234.398419227</v>
       </c>
       <c r="X7" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="8">
@@ -1135,19 +1135,19 @@
         <v>6.11896786784456</v>
       </c>
       <c r="C8" t="n">
-        <v>47.92467360505094</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D8" t="n">
-        <v>400.41929060787</v>
+        <v>0.4192906078700389</v>
       </c>
       <c r="E8" t="n">
-        <v>410.1968133282722</v>
+        <v>10.19681332827224</v>
       </c>
       <c r="F8" t="n">
-        <v>16.8201079258493</v>
+        <v>51.1479322014718</v>
       </c>
       <c r="G8" t="n">
-        <v>4.641001266096112</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1183,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1299,10 +1299,10 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,22 +1341,22 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>228.2601210751802</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>212.6500116030567</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y10" t="n">
         <v>222.4883416251229</v>
@@ -1390,7 +1390,7 @@
         <v>278.3004706722212</v>
       </c>
       <c r="I11" t="n">
-        <v>55.98930332975959</v>
+        <v>55.98930332975957</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1426,7 +1426,7 @@
         <v>190.4854774862718</v>
       </c>
       <c r="U11" t="n">
-        <v>224.9909450967475</v>
+        <v>224.990945096747</v>
       </c>
       <c r="V11" t="n">
         <v>316.8402373905461</v>
@@ -1438,7 +1438,7 @@
         <v>367.138022126399</v>
       </c>
       <c r="Y11" t="n">
-        <v>367.4283645950528</v>
+        <v>367.4283645950535</v>
       </c>
     </row>
     <row r="12">
@@ -1533,16 +1533,16 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E13" t="n">
-        <v>70.83342504418709</v>
+        <v>129.8027652540257</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>136.078945437374</v>
       </c>
       <c r="H13" t="n">
         <v>118.6124389162599</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>54.92104941501636</v>
+        <v>54.92104941501635</v>
       </c>
       <c r="S13" t="n">
-        <v>155.0289087125508</v>
+        <v>78.35989268123356</v>
       </c>
       <c r="T13" t="n">
         <v>207.6543099067269</v>
@@ -1590,7 +1590,7 @@
         <v>241.6479458835353</v>
       </c>
       <c r="W13" t="n">
-        <v>246.7800261198764</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>206.4614817925755</v>
@@ -1627,7 +1627,7 @@
         <v>278.3004706722212</v>
       </c>
       <c r="I14" t="n">
-        <v>55.98930332975959</v>
+        <v>55.98930332976053</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>104.4293227275031</v>
+        <v>104.4293227275022</v>
       </c>
       <c r="T14" t="n">
         <v>190.4854774862718</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>156.323767603766</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>139.8834969875627</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>129.8027652540257</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>40.07083074882433</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>118.6124389162599</v>
       </c>
       <c r="I16" t="n">
-        <v>85.68364371037913</v>
+        <v>85.6836437103791</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1827,13 +1827,13 @@
         <v>241.6479458835353</v>
       </c>
       <c r="W16" t="n">
-        <v>246.7800261198764</v>
+        <v>53.83022692213139</v>
       </c>
       <c r="X16" t="n">
         <v>206.4614817925755</v>
       </c>
       <c r="Y16" t="n">
-        <v>192.9893998987849</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1858,13 +1858,13 @@
         <v>387.3211661995113</v>
       </c>
       <c r="G17" t="n">
-        <v>375.1420595397581</v>
+        <v>375.1420595397591</v>
       </c>
       <c r="H17" t="n">
         <v>278.3004706722212</v>
       </c>
       <c r="I17" t="n">
-        <v>55.98930332975959</v>
+        <v>55.98930332975957</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2004,7 +2004,7 @@
         <v>156.323767603766</v>
       </c>
       <c r="C19" t="n">
-        <v>139.8834969875627</v>
+        <v>88.0431457716974</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2019,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>118.6124389162599</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>54.92104941501636</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>155.0289087125508</v>
@@ -2067,10 +2067,10 @@
         <v>246.7800261198764</v>
       </c>
       <c r="X19" t="n">
-        <v>174.0770421442188</v>
+        <v>206.4614817925755</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>192.9893998987849</v>
       </c>
     </row>
     <row r="20">
@@ -2238,19 +2238,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>156.323767603766</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>128.4007565039811</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>129.8027652540257</v>
       </c>
       <c r="F22" t="n">
-        <v>133.4858729041767</v>
+        <v>113.2692892302228</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>7.70642742583097</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>207.6543099067269</v>
@@ -2329,7 +2329,7 @@
         <v>380.6978716019343</v>
       </c>
       <c r="F23" t="n">
-        <v>387.3211661995113</v>
+        <v>387.3211661995121</v>
       </c>
       <c r="G23" t="n">
         <v>375.1420595397581</v>
@@ -2338,7 +2338,7 @@
         <v>278.3004706722212</v>
       </c>
       <c r="I23" t="n">
-        <v>55.98930332975958</v>
+        <v>55.98930332975957</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2478,7 +2478,7 @@
         <v>156.323767603766</v>
       </c>
       <c r="C25" t="n">
-        <v>106.9931090468745</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2487,16 +2487,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>2.359502061318297</v>
       </c>
       <c r="G25" t="n">
-        <v>136.078945437374</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>85.6836437103791</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>155.0289087125508</v>
       </c>
       <c r="T25" t="n">
         <v>207.6543099067269</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>156.323767603766</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>128.4007565039811</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>108.7360034308886</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>133.4858729041767</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>136.078945437374</v>
+        <v>38.77597185760948</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>118.6124389162599</v>
       </c>
       <c r="I28" t="n">
-        <v>85.68364371037912</v>
+        <v>85.6836437103791</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2781,7 +2781,7 @@
         <v>206.4614817925755</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>192.9893998987849</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>278.3004706722212</v>
       </c>
       <c r="I29" t="n">
-        <v>55.98930332975958</v>
+        <v>55.98930332975957</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>156.323767603766</v>
       </c>
       <c r="C31" t="n">
-        <v>139.8834969875627</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2961,16 +2961,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>133.4858729041767</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>118.6124389162599</v>
+        <v>102.4673613588531</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>85.6836437103791</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.92104941501636</v>
+        <v>54.92104941501635</v>
       </c>
       <c r="S31" t="n">
-        <v>155.0289087125508</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>207.6543099067269</v>
@@ -3015,10 +3015,10 @@
         <v>246.7800261198764</v>
       </c>
       <c r="X31" t="n">
-        <v>196.9149368438081</v>
+        <v>206.4614817925755</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>192.9893998987849</v>
       </c>
     </row>
     <row r="32">
@@ -3189,22 +3189,22 @@
         <v>156.323767603766</v>
       </c>
       <c r="C34" t="n">
-        <v>139.8834969875627</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>128.4007565039811</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>129.8027652540257</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>133.4858729041767</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>33.12209635668106</v>
       </c>
       <c r="H34" t="n">
-        <v>118.6124389162599</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3243,10 +3243,10 @@
         <v>207.6543099067269</v>
       </c>
       <c r="U34" t="n">
-        <v>68.04533582599444</v>
+        <v>250.4712242529991</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>241.6479458835353</v>
       </c>
       <c r="W34" t="n">
         <v>246.7800261198764</v>
@@ -3255,7 +3255,7 @@
         <v>206.4614817925755</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>192.9893998987849</v>
       </c>
     </row>
     <row r="35">
@@ -3265,16 +3265,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>376.6200261415065</v>
+        <v>376.6200261415066</v>
       </c>
       <c r="C35" t="n">
-        <v>376.5244030535245</v>
+        <v>376.5244030535246</v>
       </c>
       <c r="D35" t="n">
         <v>370.920348881532</v>
       </c>
       <c r="E35" t="n">
-        <v>380.6978716019342</v>
+        <v>380.6978716019343</v>
       </c>
       <c r="F35" t="n">
         <v>387.3211661995113</v>
@@ -3283,10 +3283,10 @@
         <v>375.1420595397581</v>
       </c>
       <c r="H35" t="n">
-        <v>278.3004706722211</v>
+        <v>278.3004706722212</v>
       </c>
       <c r="I35" t="n">
-        <v>55.98930332975954</v>
+        <v>55.98930332975958</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>104.4293227275021</v>
+        <v>104.4293227275022</v>
       </c>
       <c r="T35" t="n">
-        <v>190.4854774862717</v>
+        <v>190.4854774862718</v>
       </c>
       <c r="U35" t="n">
         <v>224.990945096747</v>
@@ -3331,7 +3331,7 @@
         <v>350.4237561298451</v>
       </c>
       <c r="X35" t="n">
-        <v>367.1380221263989</v>
+        <v>367.138022126399</v>
       </c>
       <c r="Y35" t="n">
         <v>367.4283645950528</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>156.3237676037659</v>
+        <v>156.323767603766</v>
       </c>
       <c r="C37" t="n">
-        <v>139.8834969875626</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>72.11972002687763</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>133.4858729041767</v>
       </c>
       <c r="G37" t="n">
         <v>136.078945437374</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>118.6124389162599</v>
       </c>
       <c r="I37" t="n">
-        <v>85.68364371037907</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,25 +3471,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>54.92104941501631</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>155.0289087125508</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>207.6543099067269</v>
       </c>
       <c r="U37" t="n">
         <v>250.4712242529991</v>
       </c>
       <c r="V37" t="n">
-        <v>241.6479458835352</v>
+        <v>241.6479458835353</v>
       </c>
       <c r="W37" t="n">
-        <v>246.7800261198763</v>
+        <v>246.7800261198764</v>
       </c>
       <c r="X37" t="n">
-        <v>206.4614817925754</v>
+        <v>99.31677020524722</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3508,7 +3508,7 @@
         <v>376.5244030535246</v>
       </c>
       <c r="D38" t="n">
-        <v>370.920348881532</v>
+        <v>370.9203488815327</v>
       </c>
       <c r="E38" t="n">
         <v>380.6978716019343</v>
@@ -3523,7 +3523,7 @@
         <v>278.3004706722212</v>
       </c>
       <c r="I38" t="n">
-        <v>55.9893033297596</v>
+        <v>55.98930332975958</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>156.323767603766</v>
       </c>
       <c r="C40" t="n">
-        <v>139.8834969875627</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>128.4007565039811</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>129.8027652540258</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>133.4858729041767</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>136.078945437374</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>118.6124389162599</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>85.68364371037913</v>
+        <v>85.68364371037912</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>54.92104941501638</v>
+        <v>2.359502061318353</v>
       </c>
       <c r="S40" t="n">
-        <v>155.0289087125509</v>
+        <v>155.0289087125508</v>
       </c>
       <c r="T40" t="n">
-        <v>207.654309906727</v>
+        <v>207.6543099067269</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>250.4712242529991</v>
       </c>
       <c r="V40" t="n">
-        <v>16.07859617579733</v>
+        <v>241.6479458835353</v>
       </c>
       <c r="W40" t="n">
         <v>246.7800261198764</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>206.4614817925755</v>
       </c>
       <c r="Y40" t="n">
-        <v>192.989399898785</v>
+        <v>192.9893998987849</v>
       </c>
     </row>
     <row r="41">
@@ -3742,7 +3742,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C41" t="n">
-        <v>360.176182737529</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D41" t="n">
         <v>400.41929060787</v>
@@ -3760,7 +3760,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I41" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>254.489886823085</v>
+        <v>251.4066896505621</v>
       </c>
       <c r="V41" t="n">
         <v>346.3391791168841</v>
@@ -3805,7 +3805,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y41" t="n">
         <v>396.9273063213908</v>
@@ -3900,16 +3900,16 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>177.6577091392357</v>
+        <v>105.7437518964927</v>
       </c>
       <c r="X43" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3994,7 +3994,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H44" t="n">
-        <v>307.7994123985592</v>
+        <v>85.2997057160983</v>
       </c>
       <c r="I44" t="n">
         <v>85.48824505609757</v>
@@ -4042,7 +4042,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
-        <v>174.1372571702758</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y44" t="n">
         <v>396.9273063213908</v>
@@ -4134,19 +4134,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>185.8227093301039</v>
+        <v>117.1883812417367</v>
       </c>
       <c r="C46" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>109.0153965500894</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4188,7 +4188,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U46" t="n">
         <v>279.9701659793371</v>
@@ -4203,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1702.138560391015</v>
+        <v>476.6922027889386</v>
       </c>
       <c r="C2" t="n">
-        <v>1696.054373744689</v>
+        <v>470.6080161426128</v>
       </c>
       <c r="D2" t="n">
-        <v>1364.617061039812</v>
+        <v>66.14408623567331</v>
       </c>
       <c r="E2" t="n">
-        <v>950.2768455567091</v>
+        <v>55.84427479297408</v>
       </c>
       <c r="F2" t="n">
-        <v>529.2464335103966</v>
+        <v>38.85426678706569</v>
       </c>
       <c r="G2" t="n">
-        <v>120.5181494032288</v>
+        <v>34.16638672030194</v>
       </c>
       <c r="H2" t="n">
-        <v>120.5181494032288</v>
+        <v>34.16638672030194</v>
       </c>
       <c r="I2" t="n">
-        <v>34.16638672030201</v>
+        <v>34.16638672030194</v>
       </c>
       <c r="J2" t="n">
-        <v>34.16638672030201</v>
+        <v>288.3518581880562</v>
       </c>
       <c r="K2" t="n">
-        <v>456.9754223840393</v>
+        <v>711.1608938517927</v>
       </c>
       <c r="L2" t="n">
-        <v>456.9754223840393</v>
+        <v>1133.969929515529</v>
       </c>
       <c r="M2" t="n">
-        <v>456.9754223840393</v>
+        <v>1346.60168353024</v>
       </c>
       <c r="N2" t="n">
-        <v>862.7012646876256</v>
+        <v>1346.60168353024</v>
       </c>
       <c r="O2" t="n">
-        <v>1285.510300351363</v>
+        <v>1346.60168353024</v>
       </c>
       <c r="P2" t="n">
-        <v>1708.3193360151</v>
+        <v>1346.60168353024</v>
       </c>
       <c r="Q2" t="n">
-        <v>1708.3193360151</v>
+        <v>1667.762690325532</v>
       </c>
       <c r="R2" t="n">
-        <v>1708.3193360151</v>
+        <v>1708.319336015097</v>
       </c>
       <c r="S2" t="n">
-        <v>1708.3193360151</v>
+        <v>1708.319336015097</v>
       </c>
       <c r="T2" t="n">
-        <v>1708.3193360151</v>
+        <v>1688.493453336385</v>
       </c>
       <c r="U2" t="n">
-        <v>1708.3193360151</v>
+        <v>1688.493453336385</v>
       </c>
       <c r="V2" t="n">
-        <v>1708.3193360151</v>
+        <v>1688.493453336385</v>
       </c>
       <c r="W2" t="n">
-        <v>1708.3193360151</v>
+        <v>1688.493453336385</v>
       </c>
       <c r="X2" t="n">
-        <v>1708.3193360151</v>
+        <v>1287.850055505338</v>
       </c>
       <c r="Y2" t="n">
-        <v>1708.3193360151</v>
+        <v>886.9133824534281</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>538.0117929129161</v>
+        <v>692.2486372270764</v>
       </c>
       <c r="C3" t="n">
-        <v>487.5063530117383</v>
+        <v>558.2535659760222</v>
       </c>
       <c r="D3" t="n">
-        <v>370.6091952311307</v>
+        <v>441.3564081954146</v>
       </c>
       <c r="E3" t="n">
-        <v>250.1163792234587</v>
+        <v>320.8635921877426</v>
       </c>
       <c r="F3" t="n">
-        <v>141.1564994059633</v>
+        <v>211.9037123702472</v>
       </c>
       <c r="G3" t="n">
-        <v>34.16638672030201</v>
+        <v>104.9135996845859</v>
       </c>
       <c r="H3" t="n">
-        <v>34.16638672030201</v>
+        <v>34.16638672030194</v>
       </c>
       <c r="I3" t="n">
-        <v>34.16638672030201</v>
+        <v>34.16638672030194</v>
       </c>
       <c r="J3" t="n">
-        <v>34.16638672030201</v>
+        <v>34.16638672030194</v>
       </c>
       <c r="K3" t="n">
-        <v>34.16638672030201</v>
+        <v>456.9754223840385</v>
       </c>
       <c r="L3" t="n">
-        <v>456.9754223840393</v>
+        <v>456.9754223840385</v>
       </c>
       <c r="M3" t="n">
-        <v>879.7844580477768</v>
+        <v>456.9754223840385</v>
       </c>
       <c r="N3" t="n">
-        <v>879.7844580477768</v>
+        <v>483.2972806410107</v>
       </c>
       <c r="O3" t="n">
-        <v>1285.510300351363</v>
+        <v>906.1063163047472</v>
       </c>
       <c r="P3" t="n">
-        <v>1708.3193360151</v>
+        <v>1328.915351968484</v>
       </c>
       <c r="Q3" t="n">
-        <v>1708.3193360151</v>
+        <v>1678.759816652467</v>
       </c>
       <c r="R3" t="n">
-        <v>1708.3193360151</v>
+        <v>1708.319336015097</v>
       </c>
       <c r="S3" t="n">
-        <v>1600.329326129409</v>
+        <v>1708.319336015097</v>
       </c>
       <c r="T3" t="n">
-        <v>1440.987462316417</v>
+        <v>1708.319336015097</v>
       </c>
       <c r="U3" t="n">
-        <v>1440.987462316417</v>
+        <v>1595.224306630578</v>
       </c>
       <c r="V3" t="n">
-        <v>1227.275935309451</v>
+        <v>1381.512779623612</v>
       </c>
       <c r="W3" t="n">
-        <v>1014.04276704578</v>
+        <v>1168.27961135994</v>
       </c>
       <c r="X3" t="n">
-        <v>837.7167851846727</v>
+        <v>991.953629498833</v>
       </c>
       <c r="Y3" t="n">
-        <v>678.3148255485028</v>
+        <v>832.5516698626631</v>
       </c>
     </row>
     <row r="4">
@@ -4464,34 +4464,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>150.5124326159759</v>
+        <v>230.1036030057925</v>
       </c>
       <c r="C4" t="n">
-        <v>150.5124326159759</v>
+        <v>150.5124326159758</v>
       </c>
       <c r="D4" t="n">
-        <v>150.5124326159759</v>
+        <v>150.5124326159758</v>
       </c>
       <c r="E4" t="n">
-        <v>150.5124326159759</v>
+        <v>150.5124326159758</v>
       </c>
       <c r="F4" t="n">
-        <v>150.5124326159759</v>
+        <v>150.5124326159758</v>
       </c>
       <c r="G4" t="n">
-        <v>150.5124326159759</v>
+        <v>150.5124326159758</v>
       </c>
       <c r="H4" t="n">
-        <v>150.5124326159759</v>
+        <v>150.5124326159758</v>
       </c>
       <c r="I4" t="n">
-        <v>34.16638672030201</v>
+        <v>34.16638672030194</v>
       </c>
       <c r="J4" t="n">
-        <v>48.24893612551253</v>
+        <v>48.24893612551246</v>
       </c>
       <c r="K4" t="n">
-        <v>202.8012638477505</v>
+        <v>202.8012638477504</v>
       </c>
       <c r="L4" t="n">
         <v>462.698364127811</v>
@@ -4515,25 +4515,25 @@
         <v>1478.292565016552</v>
       </c>
       <c r="S4" t="n">
-        <v>1291.900796896462</v>
+        <v>1478.292565016552</v>
       </c>
       <c r="T4" t="n">
-        <v>1052.352057873164</v>
+        <v>1478.292565016552</v>
       </c>
       <c r="U4" t="n">
-        <v>1052.352057873164</v>
+        <v>1195.494417562676</v>
       </c>
       <c r="V4" t="n">
-        <v>892.6616578586534</v>
+        <v>921.6086725021978</v>
       </c>
       <c r="W4" t="n">
-        <v>613.5919933675277</v>
+        <v>642.5390080110722</v>
       </c>
       <c r="X4" t="n">
-        <v>375.2481312272112</v>
+        <v>642.5390080110722</v>
       </c>
       <c r="Y4" t="n">
-        <v>150.5124326159759</v>
+        <v>417.8033093998368</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2082.073505856017</v>
+        <v>570.6426643811656</v>
       </c>
       <c r="C5" t="n">
-        <v>1683.54778318793</v>
+        <v>160.5180736944356</v>
       </c>
       <c r="D5" t="n">
-        <v>1683.124257321394</v>
+        <v>160.0945478279002</v>
       </c>
       <c r="E5" t="n">
-        <v>1268.784041838291</v>
+        <v>149.794736385201</v>
       </c>
       <c r="F5" t="n">
-        <v>847.7536297919787</v>
+        <v>132.8047283792926</v>
       </c>
       <c r="G5" t="n">
-        <v>439.0253456848109</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="H5" t="n">
         <v>128.1168483125289</v>
@@ -4567,22 +4567,22 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J5" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K5" t="n">
-        <v>812.7934917636817</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L5" t="n">
-        <v>1329.636426430007</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="M5" t="n">
-        <v>1726.536628995245</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="N5" t="n">
-        <v>1726.536628995245</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="O5" t="n">
-        <v>1726.536628995245</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="P5" t="n">
         <v>1726.536628995245</v>
@@ -4594,25 +4594,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S5" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T5" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U5" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="V5" t="n">
-        <v>2088.254281480102</v>
+        <v>1380.929167557543</v>
       </c>
       <c r="W5" t="n">
-        <v>2088.254281480102</v>
+        <v>1380.929167557543</v>
       </c>
       <c r="X5" t="n">
-        <v>2088.254281480102</v>
+        <v>1380.929167557543</v>
       </c>
       <c r="Y5" t="n">
-        <v>2088.254281480102</v>
+        <v>979.9924945056326</v>
       </c>
     </row>
     <row r="6">
@@ -4622,7 +4622,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C6" t="n">
         <v>586.6008562650821</v>
@@ -4646,22 +4646,22 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J6" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K6" t="n">
-        <v>497.5713418949007</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L6" t="n">
-        <v>497.5713418949007</v>
+        <v>690.384199457534</v>
       </c>
       <c r="M6" t="n">
-        <v>1014.414276561226</v>
+        <v>690.384199457534</v>
       </c>
       <c r="N6" t="n">
-        <v>1531.257211227551</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="O6" t="n">
-        <v>1531.257211227551</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="P6" t="n">
         <v>1708.850297433489</v>
@@ -4682,16 +4682,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V6" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W6" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X6" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y6" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="7">
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>684.1648729196913</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C7" t="n">
-        <v>684.1648729196913</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D7" t="n">
-        <v>684.1648729196913</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E7" t="n">
-        <v>523.2540577880108</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F7" t="n">
-        <v>358.622931898602</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G7" t="n">
-        <v>191.3725408241454</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H7" t="n">
         <v>41.76508562960205</v>
@@ -4752,25 +4752,25 @@
         <v>1485.891263925851</v>
       </c>
       <c r="S7" t="n">
-        <v>1485.891263925851</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="T7" t="n">
-        <v>1485.891263925851</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="U7" t="n">
-        <v>1475.464144611612</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="V7" t="n">
-        <v>1201.578399551134</v>
+        <v>503.2668642681101</v>
       </c>
       <c r="W7" t="n">
-        <v>922.5087350600079</v>
+        <v>266.5007842408373</v>
       </c>
       <c r="X7" t="n">
-        <v>684.1648729196913</v>
+        <v>266.5007842408373</v>
       </c>
       <c r="Y7" t="n">
-        <v>684.1648729196913</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>930.6558803095402</v>
+        <v>923.0058757140191</v>
       </c>
       <c r="C8" t="n">
-        <v>882.247119092317</v>
+        <v>512.8812850272892</v>
       </c>
       <c r="D8" t="n">
-        <v>477.7831891853775</v>
+        <v>512.4577591607538</v>
       </c>
       <c r="E8" t="n">
-        <v>63.44297370227418</v>
+        <v>502.1579477180545</v>
       </c>
       <c r="F8" t="n">
-        <v>46.45296569636579</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="G8" t="n">
         <v>41.76508562960205</v>
@@ -4813,16 +4813,16 @@
         <v>1329.636426430007</v>
       </c>
       <c r="M8" t="n">
-        <v>1726.536628995245</v>
+        <v>1530.854701124212</v>
       </c>
       <c r="N8" t="n">
-        <v>1726.536628995245</v>
+        <v>1530.854701124212</v>
       </c>
       <c r="O8" t="n">
-        <v>1726.536628995245</v>
+        <v>1530.854701124212</v>
       </c>
       <c r="P8" t="n">
-        <v>1726.536628995245</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="Q8" t="n">
         <v>2047.697635790537</v>
@@ -4831,25 +4831,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S8" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T8" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U8" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="V8" t="n">
-        <v>1738.416726816583</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="W8" t="n">
-        <v>1738.416726816583</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="X8" t="n">
-        <v>1337.773328985535</v>
+        <v>1330.123324390014</v>
       </c>
       <c r="Y8" t="n">
-        <v>936.8366559336256</v>
+        <v>929.1866513381045</v>
       </c>
     </row>
     <row r="9">
@@ -4883,28 +4883,28 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J9" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K9" t="n">
-        <v>41.76508562960205</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L9" t="n">
-        <v>558.6080202959273</v>
+        <v>1025.008892784822</v>
       </c>
       <c r="M9" t="n">
-        <v>558.6080202959273</v>
+        <v>1025.008892784822</v>
       </c>
       <c r="N9" t="n">
-        <v>1054.568412147452</v>
+        <v>1025.008892784822</v>
       </c>
       <c r="O9" t="n">
-        <v>1571.411346813777</v>
+        <v>1541.851827451147</v>
       </c>
       <c r="P9" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="Q9" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R9" t="n">
         <v>2088.254281480102</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>483.6530725463652</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C10" t="n">
-        <v>483.6530725463652</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D10" t="n">
-        <v>483.6530725463652</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E10" t="n">
-        <v>322.7422574146847</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F10" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G10" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H10" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I10" t="n">
         <v>41.76508562960205</v>
@@ -4989,25 +4989,25 @@
         <v>1571.163982250452</v>
       </c>
       <c r="S10" t="n">
-        <v>1384.772214130362</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T10" t="n">
-        <v>1384.772214130362</v>
+        <v>1340.598203386633</v>
       </c>
       <c r="U10" t="n">
-        <v>1384.772214130362</v>
+        <v>1057.800055932758</v>
       </c>
       <c r="V10" t="n">
-        <v>1110.886469069884</v>
+        <v>783.9143108722797</v>
       </c>
       <c r="W10" t="n">
-        <v>1110.886469069884</v>
+        <v>504.844646381154</v>
       </c>
       <c r="X10" t="n">
-        <v>896.0884775516449</v>
+        <v>266.5007842408373</v>
       </c>
       <c r="Y10" t="n">
-        <v>671.3527789404096</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="11">
@@ -5044,7 +5044,7 @@
         <v>347.4291691583771</v>
       </c>
       <c r="K11" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L11" t="n">
         <v>1598.180070079655</v>
@@ -5074,16 +5074,16 @@
         <v>4364.291146941469</v>
       </c>
       <c r="U11" t="n">
-        <v>4137.027566035664</v>
+        <v>4137.027566035665</v>
       </c>
       <c r="V11" t="n">
         <v>3816.98692220683</v>
       </c>
       <c r="W11" t="n">
-        <v>3463.023532176683</v>
+        <v>3463.023532176684</v>
       </c>
       <c r="X11" t="n">
-        <v>3092.17704518032</v>
+        <v>3092.177045180321</v>
       </c>
       <c r="Y11" t="n">
         <v>2721.037282963095</v>
@@ -5120,28 +5120,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J12" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K12" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L12" t="n">
-        <v>93.2436976906228</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M12" t="n">
-        <v>562.1177108836107</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N12" t="n">
-        <v>1435.775802995229</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O12" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P12" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q12" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R12" t="n">
         <v>2139.732893541123</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>284.6031562365289</v>
+        <v>611.3193604296539</v>
       </c>
       <c r="C13" t="n">
-        <v>284.6031562365289</v>
+        <v>611.3193604296539</v>
       </c>
       <c r="D13" t="n">
-        <v>284.6031562365289</v>
+        <v>481.6216265872488</v>
       </c>
       <c r="E13" t="n">
-        <v>213.0542420504813</v>
+        <v>350.5077222902531</v>
       </c>
       <c r="F13" t="n">
-        <v>213.0542420504813</v>
+        <v>350.5077222902531</v>
       </c>
       <c r="G13" t="n">
         <v>213.0542420504813</v>
@@ -5226,25 +5226,25 @@
         <v>1800.798405294154</v>
       </c>
       <c r="S13" t="n">
-        <v>1644.203548008749</v>
+        <v>1721.646998545433</v>
       </c>
       <c r="T13" t="n">
-        <v>1434.451719820136</v>
+        <v>1511.89517035682</v>
       </c>
       <c r="U13" t="n">
-        <v>1181.450483200945</v>
+        <v>1258.893933737629</v>
       </c>
       <c r="V13" t="n">
-        <v>937.361648975152</v>
+        <v>1014.805099511836</v>
       </c>
       <c r="W13" t="n">
-        <v>688.0888953187111</v>
+        <v>1014.805099511836</v>
       </c>
       <c r="X13" t="n">
-        <v>479.5419440130794</v>
+        <v>806.2581482062044</v>
       </c>
       <c r="Y13" t="n">
-        <v>284.6031562365289</v>
+        <v>611.3193604296539</v>
       </c>
     </row>
     <row r="14">
@@ -5260,28 +5260,28 @@
         <v>1960.285334281246</v>
       </c>
       <c r="D14" t="n">
-        <v>1585.618315208991</v>
+        <v>1585.618315208992</v>
       </c>
       <c r="E14" t="n">
         <v>1201.075010560573</v>
       </c>
       <c r="F14" t="n">
-        <v>809.841509348945</v>
+        <v>809.8415093489459</v>
       </c>
       <c r="G14" t="n">
-        <v>430.910136076462</v>
+        <v>430.9101360764629</v>
       </c>
       <c r="H14" t="n">
-        <v>149.7985495388648</v>
+        <v>149.7985495388658</v>
       </c>
       <c r="I14" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J14" t="n">
-        <v>347.4291691583771</v>
+        <v>347.4291691583772</v>
       </c>
       <c r="K14" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L14" t="n">
         <v>1598.180070079655</v>
@@ -5305,25 +5305,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S14" t="n">
-        <v>4556.700720159924</v>
+        <v>4556.700720159925</v>
       </c>
       <c r="T14" t="n">
-        <v>4364.291146941468</v>
+        <v>4364.291146941469</v>
       </c>
       <c r="U14" t="n">
-        <v>4137.027566035664</v>
+        <v>4137.027566035665</v>
       </c>
       <c r="V14" t="n">
         <v>3816.98692220683</v>
       </c>
       <c r="W14" t="n">
-        <v>3463.023532176683</v>
+        <v>3463.023532176684</v>
       </c>
       <c r="X14" t="n">
-        <v>3092.17704518032</v>
+        <v>3092.177045180321</v>
       </c>
       <c r="Y14" t="n">
-        <v>2721.037282963095</v>
+        <v>2721.037282963096</v>
       </c>
     </row>
     <row r="15">
@@ -5357,28 +5357,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J15" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K15" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L15" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="M15" t="n">
-        <v>936.2207783851894</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N15" t="n">
-        <v>1809.878870496807</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O15" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P15" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q15" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R15" t="n">
         <v>2139.732893541123</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>340.0789637264444</v>
+        <v>572.0137430120647</v>
       </c>
       <c r="C16" t="n">
-        <v>340.0789637264444</v>
+        <v>430.717281408466</v>
       </c>
       <c r="D16" t="n">
-        <v>340.0789637264444</v>
+        <v>430.717281408466</v>
       </c>
       <c r="E16" t="n">
-        <v>340.0789637264444</v>
+        <v>299.6033771114703</v>
       </c>
       <c r="F16" t="n">
-        <v>340.0789637264444</v>
+        <v>299.6033771114703</v>
       </c>
       <c r="G16" t="n">
         <v>299.6033771114703</v>
@@ -5475,13 +5475,13 @@
         <v>992.8374564650675</v>
       </c>
       <c r="W16" t="n">
-        <v>743.5647028086266</v>
+        <v>938.463489877056</v>
       </c>
       <c r="X16" t="n">
-        <v>535.0177515029949</v>
+        <v>729.9165385714242</v>
       </c>
       <c r="Y16" t="n">
-        <v>340.0789637264444</v>
+        <v>729.9165385714242</v>
       </c>
     </row>
     <row r="17">
@@ -5497,16 +5497,16 @@
         <v>1960.285334281246</v>
       </c>
       <c r="D17" t="n">
-        <v>1585.618315208991</v>
+        <v>1585.618315208992</v>
       </c>
       <c r="E17" t="n">
         <v>1201.075010560573</v>
       </c>
       <c r="F17" t="n">
-        <v>809.8415093489448</v>
+        <v>809.8415093489459</v>
       </c>
       <c r="G17" t="n">
-        <v>430.9101360764616</v>
+        <v>430.910136076462</v>
       </c>
       <c r="H17" t="n">
         <v>149.7985495388648</v>
@@ -5515,10 +5515,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J17" t="n">
-        <v>347.4291691583772</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K17" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L17" t="n">
         <v>1598.180070079655</v>
@@ -5548,16 +5548,16 @@
         <v>4364.291146941469</v>
       </c>
       <c r="U17" t="n">
-        <v>4137.027566035664</v>
+        <v>4137.027566035665</v>
       </c>
       <c r="V17" t="n">
         <v>3816.98692220683</v>
       </c>
       <c r="W17" t="n">
-        <v>3463.023532176683</v>
+        <v>3463.023532176684</v>
       </c>
       <c r="X17" t="n">
-        <v>3092.17704518032</v>
+        <v>3092.177045180321</v>
       </c>
       <c r="Y17" t="n">
         <v>2721.037282963096</v>
@@ -5594,28 +5594,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J18" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K18" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L18" t="n">
-        <v>754.331869609911</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M18" t="n">
-        <v>1597.308950304478</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="N18" t="n">
-        <v>1597.308950304478</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="O18" t="n">
-        <v>2139.732893541123</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="P18" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q18" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R18" t="n">
         <v>2139.732893541123</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>354.35070365408</v>
+        <v>182.1761681670848</v>
       </c>
       <c r="C19" t="n">
-        <v>213.0542420504813</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D19" t="n">
-        <v>213.0542420504813</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E19" t="n">
-        <v>213.0542420504813</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F19" t="n">
-        <v>213.0542420504813</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G19" t="n">
-        <v>213.0542420504813</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H19" t="n">
         <v>93.2436976906228</v>
@@ -5697,28 +5697,28 @@
         <v>1856.27421278407</v>
       </c>
       <c r="R19" t="n">
-        <v>1800.798405294154</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="S19" t="n">
-        <v>1644.203548008749</v>
+        <v>1699.679355498665</v>
       </c>
       <c r="T19" t="n">
-        <v>1434.451719820136</v>
+        <v>1489.927527310052</v>
       </c>
       <c r="U19" t="n">
-        <v>1181.450483200945</v>
+        <v>1236.926290690861</v>
       </c>
       <c r="V19" t="n">
-        <v>937.361648975152</v>
+        <v>992.8374564650675</v>
       </c>
       <c r="W19" t="n">
-        <v>688.0888953187111</v>
+        <v>743.5647028086266</v>
       </c>
       <c r="X19" t="n">
-        <v>512.2534992134396</v>
+        <v>535.0177515029949</v>
       </c>
       <c r="Y19" t="n">
-        <v>512.2534992134396</v>
+        <v>340.0789637264444</v>
       </c>
     </row>
     <row r="20">
@@ -5731,19 +5731,19 @@
         <v>2340.613014133291</v>
       </c>
       <c r="C20" t="n">
-        <v>1960.285334281245</v>
+        <v>1960.285334281246</v>
       </c>
       <c r="D20" t="n">
         <v>1585.618315208991</v>
       </c>
       <c r="E20" t="n">
-        <v>1201.075010560572</v>
+        <v>1201.075010560573</v>
       </c>
       <c r="F20" t="n">
-        <v>809.8415093489448</v>
+        <v>809.841509348945</v>
       </c>
       <c r="G20" t="n">
-        <v>430.9101360764619</v>
+        <v>430.910136076462</v>
       </c>
       <c r="H20" t="n">
         <v>149.7985495388648</v>
@@ -5785,7 +5785,7 @@
         <v>4364.291146941469</v>
       </c>
       <c r="U20" t="n">
-        <v>4137.027566035665</v>
+        <v>4137.027566035664</v>
       </c>
       <c r="V20" t="n">
         <v>3816.98692220683</v>
@@ -5831,19 +5831,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J21" t="n">
-        <v>286.056555253256</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K21" t="n">
-        <v>741.8628115185547</v>
+        <v>393.5382013723083</v>
       </c>
       <c r="L21" t="n">
-        <v>1402.950983437843</v>
+        <v>393.5382013723083</v>
       </c>
       <c r="M21" t="n">
-        <v>1406.216283632599</v>
+        <v>1236.515282066875</v>
       </c>
       <c r="N21" t="n">
-        <v>1406.216283632599</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="O21" t="n">
         <v>2110.173374178493</v>
@@ -5886,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>488.8895508847475</v>
+        <v>338.77102545249</v>
       </c>
       <c r="C22" t="n">
-        <v>488.8895508847475</v>
+        <v>338.77102545249</v>
       </c>
       <c r="D22" t="n">
-        <v>359.1918170423423</v>
+        <v>338.77102545249</v>
       </c>
       <c r="E22" t="n">
-        <v>228.0779127453467</v>
+        <v>207.6571211554943</v>
       </c>
       <c r="F22" t="n">
         <v>93.2436976906228</v>
@@ -5937,25 +5937,25 @@
         <v>1856.27421278407</v>
       </c>
       <c r="S22" t="n">
-        <v>1848.489942656968</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="T22" t="n">
-        <v>1638.738114468355</v>
+        <v>1646.522384595457</v>
       </c>
       <c r="U22" t="n">
-        <v>1385.736877849164</v>
+        <v>1393.521147976266</v>
       </c>
       <c r="V22" t="n">
-        <v>1141.648043623371</v>
+        <v>1149.432313750473</v>
       </c>
       <c r="W22" t="n">
-        <v>892.3752899669297</v>
+        <v>900.1595600940318</v>
       </c>
       <c r="X22" t="n">
-        <v>683.8283386612979</v>
+        <v>691.6126087884001</v>
       </c>
       <c r="Y22" t="n">
-        <v>488.8895508847475</v>
+        <v>496.6738210118496</v>
       </c>
     </row>
     <row r="23">
@@ -5968,19 +5968,19 @@
         <v>2340.613014133291</v>
       </c>
       <c r="C23" t="n">
-        <v>1960.285334281245</v>
+        <v>1960.285334281246</v>
       </c>
       <c r="D23" t="n">
-        <v>1585.618315208991</v>
+        <v>1585.618315208992</v>
       </c>
       <c r="E23" t="n">
-        <v>1201.075010560572</v>
+        <v>1201.075010560573</v>
       </c>
       <c r="F23" t="n">
-        <v>809.8415093489448</v>
+        <v>809.841509348945</v>
       </c>
       <c r="G23" t="n">
-        <v>430.9101360764616</v>
+        <v>430.910136076462</v>
       </c>
       <c r="H23" t="n">
         <v>149.7985495388648</v>
@@ -5989,10 +5989,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J23" t="n">
-        <v>347.4291691583776</v>
+        <v>347.4291691583772</v>
       </c>
       <c r="K23" t="n">
-        <v>885.588670267417</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L23" t="n">
         <v>1598.180070079655</v>
@@ -6004,7 +6004,7 @@
         <v>3127.679677710027</v>
       </c>
       <c r="O23" t="n">
-        <v>3771.310534127131</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P23" t="n">
         <v>4300.467232046283</v>
@@ -6016,25 +6016,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S23" t="n">
-        <v>4556.700720159924</v>
+        <v>4556.700720159925</v>
       </c>
       <c r="T23" t="n">
-        <v>4364.291146941468</v>
+        <v>4364.291146941469</v>
       </c>
       <c r="U23" t="n">
-        <v>4137.027566035664</v>
+        <v>4137.027566035665</v>
       </c>
       <c r="V23" t="n">
-        <v>3816.986922206829</v>
+        <v>3816.98692220683</v>
       </c>
       <c r="W23" t="n">
-        <v>3463.023532176683</v>
+        <v>3463.023532176684</v>
       </c>
       <c r="X23" t="n">
-        <v>3092.17704518032</v>
+        <v>3092.177045180321</v>
       </c>
       <c r="Y23" t="n">
-        <v>2721.037282963095</v>
+        <v>2721.037282963096</v>
       </c>
     </row>
     <row r="24">
@@ -6068,28 +6068,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J24" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K24" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L24" t="n">
-        <v>93.2436976906228</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M24" t="n">
-        <v>562.1177108836107</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N24" t="n">
-        <v>1435.775802995229</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O24" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P24" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q24" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R24" t="n">
         <v>2139.732893541123</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>338.77102545249</v>
+        <v>182.1761681670848</v>
       </c>
       <c r="C25" t="n">
-        <v>230.6971779303946</v>
+        <v>182.1761681670848</v>
       </c>
       <c r="D25" t="n">
-        <v>230.6971779303946</v>
+        <v>182.1761681670848</v>
       </c>
       <c r="E25" t="n">
-        <v>230.6971779303946</v>
+        <v>182.1761681670848</v>
       </c>
       <c r="F25" t="n">
-        <v>230.6971779303946</v>
+        <v>179.7928327516118</v>
       </c>
       <c r="G25" t="n">
-        <v>93.2436976906228</v>
+        <v>179.7928327516118</v>
       </c>
       <c r="H25" t="n">
-        <v>93.2436976906228</v>
+        <v>179.7928327516118</v>
       </c>
       <c r="I25" t="n">
         <v>93.2436976906228</v>
@@ -6174,25 +6174,25 @@
         <v>1856.27421278407</v>
       </c>
       <c r="S25" t="n">
-        <v>1856.27421278407</v>
+        <v>1699.679355498665</v>
       </c>
       <c r="T25" t="n">
-        <v>1646.522384595457</v>
+        <v>1489.927527310052</v>
       </c>
       <c r="U25" t="n">
-        <v>1393.521147976266</v>
+        <v>1236.926290690861</v>
       </c>
       <c r="V25" t="n">
-        <v>1149.432313750473</v>
+        <v>992.8374564650675</v>
       </c>
       <c r="W25" t="n">
-        <v>900.1595600940318</v>
+        <v>743.5647028086266</v>
       </c>
       <c r="X25" t="n">
-        <v>691.6126087884001</v>
+        <v>535.0177515029949</v>
       </c>
       <c r="Y25" t="n">
-        <v>496.6738210118496</v>
+        <v>340.0789637264444</v>
       </c>
     </row>
     <row r="26">
@@ -6305,28 +6305,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J27" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K27" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L27" t="n">
-        <v>93.2436976906228</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M27" t="n">
-        <v>936.2207783851894</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N27" t="n">
-        <v>1809.878870496807</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O27" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P27" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q27" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R27" t="n">
         <v>2139.732893541123</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>691.6126087884001</v>
+        <v>338.77102545249</v>
       </c>
       <c r="C28" t="n">
-        <v>691.6126087884001</v>
+        <v>338.77102545249</v>
       </c>
       <c r="D28" t="n">
-        <v>561.9148749459949</v>
+        <v>338.77102545249</v>
       </c>
       <c r="E28" t="n">
-        <v>452.0805280461075</v>
+        <v>338.77102545249</v>
       </c>
       <c r="F28" t="n">
-        <v>317.2463129913835</v>
+        <v>338.77102545249</v>
       </c>
       <c r="G28" t="n">
-        <v>179.7928327516118</v>
+        <v>299.6033771114703</v>
       </c>
       <c r="H28" t="n">
         <v>179.7928327516118</v>
@@ -6429,7 +6429,7 @@
         <v>691.6126087884001</v>
       </c>
       <c r="Y28" t="n">
-        <v>691.6126087884001</v>
+        <v>496.6738210118496</v>
       </c>
     </row>
     <row r="29">
@@ -6442,7 +6442,7 @@
         <v>2340.613014133291</v>
       </c>
       <c r="C29" t="n">
-        <v>1960.285334281245</v>
+        <v>1960.285334281246</v>
       </c>
       <c r="D29" t="n">
         <v>1585.618315208991</v>
@@ -6451,10 +6451,10 @@
         <v>1201.075010560573</v>
       </c>
       <c r="F29" t="n">
-        <v>809.8415093489449</v>
+        <v>809.841509348945</v>
       </c>
       <c r="G29" t="n">
-        <v>430.9101360764619</v>
+        <v>430.910136076462</v>
       </c>
       <c r="H29" t="n">
         <v>149.7985495388648</v>
@@ -6493,22 +6493,22 @@
         <v>4556.700720159925</v>
       </c>
       <c r="T29" t="n">
-        <v>4364.291146941468</v>
+        <v>4364.291146941469</v>
       </c>
       <c r="U29" t="n">
-        <v>4137.027566035664</v>
+        <v>4137.027566035665</v>
       </c>
       <c r="V29" t="n">
-        <v>3816.986922206829</v>
+        <v>3816.98692220683</v>
       </c>
       <c r="W29" t="n">
-        <v>3463.023532176683</v>
+        <v>3463.023532176684</v>
       </c>
       <c r="X29" t="n">
-        <v>3092.17704518032</v>
+        <v>3092.177045180321</v>
       </c>
       <c r="Y29" t="n">
-        <v>2721.037282963095</v>
+        <v>2721.037282963096</v>
       </c>
     </row>
     <row r="30">
@@ -6542,28 +6542,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J30" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K30" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L30" t="n">
-        <v>93.2436976906228</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M30" t="n">
-        <v>936.2207783851894</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N30" t="n">
-        <v>936.2207783851894</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O30" t="n">
-        <v>1640.177868931084</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P30" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q30" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R30" t="n">
         <v>2139.732893541123</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>489.1849187088039</v>
+        <v>283.2952179625745</v>
       </c>
       <c r="C31" t="n">
-        <v>347.8884571052052</v>
+        <v>283.2952179625745</v>
       </c>
       <c r="D31" t="n">
-        <v>347.8884571052052</v>
+        <v>283.2952179625745</v>
       </c>
       <c r="E31" t="n">
-        <v>347.8884571052052</v>
+        <v>283.2952179625745</v>
       </c>
       <c r="F31" t="n">
-        <v>213.0542420504813</v>
+        <v>283.2952179625745</v>
       </c>
       <c r="G31" t="n">
-        <v>213.0542420504813</v>
+        <v>283.2952179625745</v>
       </c>
       <c r="H31" t="n">
-        <v>93.2436976906228</v>
+        <v>179.7928327516118</v>
       </c>
       <c r="I31" t="n">
         <v>93.2436976906228</v>
@@ -6648,25 +6648,25 @@
         <v>1800.798405294154</v>
       </c>
       <c r="S31" t="n">
-        <v>1644.203548008749</v>
+        <v>1800.798405294154</v>
       </c>
       <c r="T31" t="n">
-        <v>1434.451719820136</v>
+        <v>1591.046577105541</v>
       </c>
       <c r="U31" t="n">
-        <v>1181.450483200945</v>
+        <v>1338.04534048635</v>
       </c>
       <c r="V31" t="n">
-        <v>937.361648975152</v>
+        <v>1093.956506260557</v>
       </c>
       <c r="W31" t="n">
-        <v>688.0888953187111</v>
+        <v>844.6837526041163</v>
       </c>
       <c r="X31" t="n">
-        <v>489.1849187088039</v>
+        <v>636.1368012984846</v>
       </c>
       <c r="Y31" t="n">
-        <v>489.1849187088039</v>
+        <v>441.1980135219341</v>
       </c>
     </row>
     <row r="32">
@@ -6682,16 +6682,16 @@
         <v>1960.285334281245</v>
       </c>
       <c r="D32" t="n">
-        <v>1585.618315208992</v>
+        <v>1585.618315208991</v>
       </c>
       <c r="E32" t="n">
-        <v>1201.075010560573</v>
+        <v>1201.075010560572</v>
       </c>
       <c r="F32" t="n">
-        <v>809.8415093489455</v>
+        <v>809.8415093489446</v>
       </c>
       <c r="G32" t="n">
-        <v>430.9101360764625</v>
+        <v>430.9101360764616</v>
       </c>
       <c r="H32" t="n">
         <v>149.7985495388648</v>
@@ -6700,10 +6700,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J32" t="n">
-        <v>347.4291691583772</v>
+        <v>347.4291691583776</v>
       </c>
       <c r="K32" t="n">
-        <v>885.5886702674168</v>
+        <v>885.588670267417</v>
       </c>
       <c r="L32" t="n">
         <v>1598.180070079655</v>
@@ -6715,7 +6715,7 @@
         <v>3127.679677710027</v>
       </c>
       <c r="O32" t="n">
-        <v>3771.310534127132</v>
+        <v>3771.310534127131</v>
       </c>
       <c r="P32" t="n">
         <v>4300.467232046283</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>749.9965568482047</v>
+        <v>126.7003606771693</v>
       </c>
       <c r="C34" t="n">
-        <v>608.700095244606</v>
+        <v>126.7003606771693</v>
       </c>
       <c r="D34" t="n">
-        <v>479.0023614022009</v>
+        <v>126.7003606771693</v>
       </c>
       <c r="E34" t="n">
-        <v>347.8884571052052</v>
+        <v>126.7003606771693</v>
       </c>
       <c r="F34" t="n">
-        <v>213.0542420504813</v>
+        <v>126.7003606771693</v>
       </c>
       <c r="G34" t="n">
-        <v>213.0542420504813</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H34" t="n">
         <v>93.2436976906228</v>
@@ -6891,19 +6891,19 @@
         <v>1434.451719820136</v>
       </c>
       <c r="U34" t="n">
-        <v>1365.719057369637</v>
+        <v>1181.450483200945</v>
       </c>
       <c r="V34" t="n">
-        <v>1365.719057369637</v>
+        <v>937.361648975152</v>
       </c>
       <c r="W34" t="n">
-        <v>1116.446303713196</v>
+        <v>688.0888953187111</v>
       </c>
       <c r="X34" t="n">
-        <v>907.8993524075643</v>
+        <v>479.5419440130794</v>
       </c>
       <c r="Y34" t="n">
-        <v>907.8993524075643</v>
+        <v>284.6031562365289</v>
       </c>
     </row>
     <row r="35">
@@ -6916,19 +6916,19 @@
         <v>2340.613014133291</v>
       </c>
       <c r="C35" t="n">
-        <v>1960.285334281245</v>
+        <v>1960.285334281246</v>
       </c>
       <c r="D35" t="n">
         <v>1585.618315208991</v>
       </c>
       <c r="E35" t="n">
-        <v>1201.075010560573</v>
+        <v>1201.075010560572</v>
       </c>
       <c r="F35" t="n">
-        <v>809.8415093489449</v>
+        <v>809.8415093489448</v>
       </c>
       <c r="G35" t="n">
-        <v>430.9101360764619</v>
+        <v>430.910136076462</v>
       </c>
       <c r="H35" t="n">
         <v>149.7985495388648</v>
@@ -6967,22 +6967,22 @@
         <v>4556.700720159925</v>
       </c>
       <c r="T35" t="n">
-        <v>4364.291146941468</v>
+        <v>4364.291146941469</v>
       </c>
       <c r="U35" t="n">
-        <v>4137.027566035664</v>
+        <v>4137.027566035665</v>
       </c>
       <c r="V35" t="n">
-        <v>3816.986922206829</v>
+        <v>3816.98692220683</v>
       </c>
       <c r="W35" t="n">
-        <v>3463.023532176683</v>
+        <v>3463.023532176684</v>
       </c>
       <c r="X35" t="n">
-        <v>3092.17704518032</v>
+        <v>3092.177045180321</v>
       </c>
       <c r="Y35" t="n">
-        <v>2721.037282963095</v>
+        <v>2721.037282963096</v>
       </c>
     </row>
     <row r="36">
@@ -7016,28 +7016,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J36" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K36" t="n">
-        <v>93.2436976906228</v>
+        <v>537.5348450866911</v>
       </c>
       <c r="L36" t="n">
-        <v>754.331869609911</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M36" t="n">
-        <v>1597.308950304478</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N36" t="n">
-        <v>1597.308950304478</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O36" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P36" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q36" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R36" t="n">
         <v>2139.732893541123</v>
@@ -7071,46 +7071,46 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>531.3909766423333</v>
+        <v>485.3419373449769</v>
       </c>
       <c r="C37" t="n">
-        <v>390.0945150387346</v>
+        <v>485.3419373449769</v>
       </c>
       <c r="D37" t="n">
-        <v>390.0945150387346</v>
+        <v>485.3419373449769</v>
       </c>
       <c r="E37" t="n">
-        <v>317.2463129913835</v>
+        <v>485.3419373449769</v>
       </c>
       <c r="F37" t="n">
-        <v>317.2463129913835</v>
+        <v>350.5077222902531</v>
       </c>
       <c r="G37" t="n">
-        <v>179.7928327516118</v>
+        <v>213.0542420504813</v>
       </c>
       <c r="H37" t="n">
-        <v>179.7928327516118</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I37" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J37" t="n">
-        <v>136.530199404908</v>
+        <v>136.5301994049079</v>
       </c>
       <c r="K37" t="n">
-        <v>320.2864794362206</v>
+        <v>320.2864794362205</v>
       </c>
       <c r="L37" t="n">
         <v>609.3875320253558</v>
       </c>
       <c r="M37" t="n">
-        <v>927.8555407749237</v>
+        <v>927.8555407749236</v>
       </c>
       <c r="N37" t="n">
-        <v>1237.898275478249</v>
+        <v>1237.898275478248</v>
       </c>
       <c r="O37" t="n">
-        <v>1526.662838113798</v>
+        <v>1526.662838113797</v>
       </c>
       <c r="P37" t="n">
         <v>1761.542230672484</v>
@@ -7119,28 +7119,28 @@
         <v>1856.27421278407</v>
       </c>
       <c r="R37" t="n">
-        <v>1800.798405294154</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="S37" t="n">
-        <v>1644.20354800875</v>
+        <v>1699.679355498665</v>
       </c>
       <c r="T37" t="n">
-        <v>1644.20354800875</v>
+        <v>1489.927527310052</v>
       </c>
       <c r="U37" t="n">
-        <v>1391.202311389558</v>
+        <v>1236.926290690861</v>
       </c>
       <c r="V37" t="n">
-        <v>1147.113477163765</v>
+        <v>992.8374564650675</v>
       </c>
       <c r="W37" t="n">
-        <v>897.8407235073246</v>
+        <v>743.5647028086266</v>
       </c>
       <c r="X37" t="n">
-        <v>689.2937722016928</v>
+        <v>643.2447329043365</v>
       </c>
       <c r="Y37" t="n">
-        <v>689.2937722016928</v>
+        <v>643.2447329043365</v>
       </c>
     </row>
     <row r="38">
@@ -7162,7 +7162,7 @@
         <v>1201.075010560573</v>
       </c>
       <c r="F38" t="n">
-        <v>809.8415093489451</v>
+        <v>809.841509348945</v>
       </c>
       <c r="G38" t="n">
         <v>430.910136076462</v>
@@ -7204,22 +7204,22 @@
         <v>4556.700720159925</v>
       </c>
       <c r="T38" t="n">
-        <v>4364.291146941468</v>
+        <v>4364.291146941469</v>
       </c>
       <c r="U38" t="n">
-        <v>4137.027566035664</v>
+        <v>4137.027566035665</v>
       </c>
       <c r="V38" t="n">
-        <v>3816.986922206829</v>
+        <v>3816.98692220683</v>
       </c>
       <c r="W38" t="n">
-        <v>3463.023532176683</v>
+        <v>3463.023532176684</v>
       </c>
       <c r="X38" t="n">
-        <v>3092.17704518032</v>
+        <v>3092.177045180321</v>
       </c>
       <c r="Y38" t="n">
-        <v>2721.037282963095</v>
+        <v>2721.037282963096</v>
       </c>
     </row>
     <row r="39">
@@ -7253,28 +7253,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J39" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K39" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="L39" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="M39" t="n">
-        <v>936.2207783851894</v>
+        <v>286.056555253256</v>
       </c>
       <c r="N39" t="n">
-        <v>1809.878870496807</v>
+        <v>1159.714647364874</v>
       </c>
       <c r="O39" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P39" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q39" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R39" t="n">
         <v>2139.732893541123</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>973.9991721489656</v>
+        <v>179.7928327516118</v>
       </c>
       <c r="C40" t="n">
-        <v>832.7027105453669</v>
+        <v>179.7928327516118</v>
       </c>
       <c r="D40" t="n">
-        <v>703.0049767029618</v>
+        <v>179.7928327516118</v>
       </c>
       <c r="E40" t="n">
-        <v>571.891072405966</v>
+        <v>179.7928327516118</v>
       </c>
       <c r="F40" t="n">
-        <v>437.0568573512421</v>
+        <v>179.7928327516118</v>
       </c>
       <c r="G40" t="n">
-        <v>299.6033771114704</v>
+        <v>179.7928327516118</v>
       </c>
       <c r="H40" t="n">
         <v>179.7928327516118</v>
@@ -7338,7 +7338,7 @@
         <v>320.2864794362205</v>
       </c>
       <c r="L40" t="n">
-        <v>609.3875320253557</v>
+        <v>609.3875320253558</v>
       </c>
       <c r="M40" t="n">
         <v>927.8555407749236</v>
@@ -7356,28 +7356,28 @@
         <v>1856.27421278407</v>
       </c>
       <c r="R40" t="n">
-        <v>1800.798405294154</v>
+        <v>1853.890877368597</v>
       </c>
       <c r="S40" t="n">
-        <v>1644.203548008749</v>
+        <v>1697.296020083192</v>
       </c>
       <c r="T40" t="n">
-        <v>1434.451719820136</v>
+        <v>1487.544191894579</v>
       </c>
       <c r="U40" t="n">
-        <v>1434.451719820136</v>
+        <v>1234.542955275388</v>
       </c>
       <c r="V40" t="n">
-        <v>1418.210713581957</v>
+        <v>990.4541210495943</v>
       </c>
       <c r="W40" t="n">
-        <v>1168.937959925516</v>
+        <v>741.1813673931536</v>
       </c>
       <c r="X40" t="n">
-        <v>1168.937959925516</v>
+        <v>532.6344160875218</v>
       </c>
       <c r="Y40" t="n">
-        <v>973.9991721489656</v>
+        <v>337.6956283109714</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2502.881125286859</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C41" t="n">
-        <v>2139.066799289355</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D41" t="n">
-        <v>1734.602869382415</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E41" t="n">
-        <v>1320.262653899312</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F41" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G41" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H41" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I41" t="n">
         <v>93.2436976906228</v>
@@ -7438,25 +7438,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S41" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T41" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U41" t="n">
-        <v>4047.636833531609</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V41" t="n">
-        <v>3697.79927886809</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W41" t="n">
-        <v>3314.038978003258</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X41" t="n">
-        <v>3314.038978003258</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y41" t="n">
-        <v>2913.102304951348</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="42">
@@ -7490,28 +7490,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J42" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K42" t="n">
-        <v>524.2254458227151</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L42" t="n">
-        <v>524.2254458227151</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M42" t="n">
-        <v>524.2254458227151</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N42" t="n">
-        <v>524.2254458227151</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O42" t="n">
-        <v>1228.182536368609</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P42" t="n">
-        <v>1789.888428857139</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q42" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R42" t="n">
         <v>2139.732893541123</v>
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>706.2250570456695</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="C43" t="n">
-        <v>535.131684607386</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="D43" t="n">
-        <v>535.131684607386</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="E43" t="n">
-        <v>374.2208694757054</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="F43" t="n">
         <v>209.5897435862967</v>
@@ -7593,28 +7593,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R43" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S43" t="n">
-        <v>1622.642594311473</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T43" t="n">
-        <v>1622.642594311473</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="U43" t="n">
-        <v>1622.642594311473</v>
+        <v>828.6312213896092</v>
       </c>
       <c r="V43" t="n">
-        <v>1348.756849250995</v>
+        <v>554.7454763291312</v>
       </c>
       <c r="W43" t="n">
-        <v>1169.304617797221</v>
+        <v>447.9336057266133</v>
       </c>
       <c r="X43" t="n">
-        <v>930.9607556569048</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="Y43" t="n">
-        <v>706.2250570456695</v>
+        <v>209.5897435862967</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2549.191389976085</v>
+        <v>2324.444211508952</v>
       </c>
       <c r="C44" t="n">
-        <v>2139.066799289355</v>
+        <v>1914.319620822223</v>
       </c>
       <c r="D44" t="n">
-        <v>1734.602869382415</v>
+        <v>1509.855690915283</v>
       </c>
       <c r="E44" t="n">
-        <v>1320.262653899312</v>
+        <v>1095.51547543218</v>
       </c>
       <c r="F44" t="n">
-        <v>899.2322418529996</v>
+        <v>674.4850633858673</v>
       </c>
       <c r="G44" t="n">
-        <v>490.5039577458317</v>
+        <v>265.7567792786995</v>
       </c>
       <c r="H44" t="n">
         <v>179.5954603735497</v>
@@ -7690,10 +7690,10 @@
         <v>3536.245462056399</v>
       </c>
       <c r="X44" t="n">
-        <v>3360.349242692484</v>
+        <v>3135.602064225352</v>
       </c>
       <c r="Y44" t="n">
-        <v>2959.412569640574</v>
+        <v>2734.665391173442</v>
       </c>
     </row>
     <row r="45">
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>374.4536323007138</v>
+        <v>428.968196018315</v>
       </c>
       <c r="C46" t="n">
-        <v>203.3602598624303</v>
+        <v>257.8748235800315</v>
       </c>
       <c r="D46" t="n">
-        <v>93.2436976906228</v>
+        <v>257.8748235800315</v>
       </c>
       <c r="E46" t="n">
-        <v>93.2436976906228</v>
+        <v>257.8748235800315</v>
       </c>
       <c r="F46" t="n">
         <v>93.2436976906228</v>
@@ -7836,22 +7836,22 @@
         <v>1622.642594311473</v>
       </c>
       <c r="T46" t="n">
-        <v>1622.642594311473</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U46" t="n">
-        <v>1339.844446857597</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V46" t="n">
-        <v>1065.958701797119</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W46" t="n">
-        <v>786.8890373059935</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X46" t="n">
-        <v>786.8890373059935</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="Y46" t="n">
-        <v>562.1533386947582</v>
+        <v>547.3402982826956</v>
       </c>
     </row>
   </sheetData>
@@ -7978,31 +7978,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K2" t="n">
-        <v>516.2162236769922</v>
+        <v>516.2162236769914</v>
       </c>
       <c r="L2" t="n">
-        <v>95.48539806284482</v>
+        <v>522.5652320666192</v>
       </c>
       <c r="M2" t="n">
-        <v>93.29022445704545</v>
+        <v>308.0697739668546</v>
       </c>
       <c r="N2" t="n">
-        <v>502.7363738915549</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O2" t="n">
-        <v>520.2696096295582</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P2" t="n">
-        <v>520.7291972846592</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q2" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R2" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8060,28 +8060,28 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K3" t="n">
-        <v>55.82578278461539</v>
+        <v>482.9056167883897</v>
       </c>
       <c r="L3" t="n">
-        <v>483.1943578146241</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M3" t="n">
-        <v>484.6441177421925</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N3" t="n">
-        <v>53.19339339374999</v>
+        <v>79.78112900685321</v>
       </c>
       <c r="O3" t="n">
-        <v>467.5755621349356</v>
+        <v>484.8313130037743</v>
       </c>
       <c r="P3" t="n">
-        <v>481.3394690065788</v>
+        <v>481.339469006578</v>
       </c>
       <c r="Q3" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R3" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8215,25 +8215,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K5" t="n">
-        <v>611.1999600432426</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L5" t="n">
-        <v>617.5489684328704</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M5" t="n">
-        <v>494.1995199774884</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N5" t="n">
-        <v>92.91229075661933</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O5" t="n">
-        <v>93.18977562578313</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P5" t="n">
-        <v>93.64936328088416</v>
+        <v>229.2480899138817</v>
       </c>
       <c r="Q5" t="n">
         <v>414.4388617681339</v>
@@ -8294,7 +8294,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J6" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K6" t="n">
         <v>516.2361426485535</v>
@@ -8303,16 +8303,16 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M6" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N6" t="n">
-        <v>575.2569637637755</v>
+        <v>559.8834573428708</v>
       </c>
       <c r="O6" t="n">
         <v>57.751479</v>
       </c>
       <c r="P6" t="n">
-        <v>233.6465907663771</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q6" t="n">
         <v>410.0708656603775</v>
@@ -8461,7 +8461,7 @@
         <v>617.5489684328704</v>
       </c>
       <c r="M8" t="n">
-        <v>494.1995199774884</v>
+        <v>296.5410069764447</v>
       </c>
       <c r="N8" t="n">
         <v>92.91229075661933</v>
@@ -8470,10 +8470,10 @@
         <v>93.18977562578313</v>
       </c>
       <c r="P8" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q8" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R8" t="n">
         <v>128.2784515920617</v>
@@ -8531,19 +8531,19 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J9" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K9" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L9" t="n">
-        <v>578.1780941808746</v>
+        <v>394.1192645454833</v>
       </c>
       <c r="M9" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N9" t="n">
-        <v>554.1634861730678</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O9" t="n">
         <v>579.8150493700256</v>
@@ -8555,7 +8555,7 @@
         <v>56.69261850483872</v>
       </c>
       <c r="R9" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8692,7 +8692,7 @@
         <v>330.076592815888</v>
       </c>
       <c r="K11" t="n">
-        <v>632.7318453389137</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L11" t="n">
         <v>815.2746908024792</v>
@@ -8768,31 +8768,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K12" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L12" t="n">
-        <v>56.11452381084905</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M12" t="n">
-        <v>531.1743980747688</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N12" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O12" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P12" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q12" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R12" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>330.076592815888</v>
+        <v>330.0765928158882</v>
       </c>
       <c r="K14" t="n">
         <v>632.7318453389136</v>
@@ -8950,7 +8950,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R14" t="n">
-        <v>128.2784515920618</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,31 +9005,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K15" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L15" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M15" t="n">
-        <v>909.0562844399999</v>
+        <v>518.93822867521</v>
       </c>
       <c r="N15" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O15" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P15" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q15" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R15" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>330.0765928158882</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K17" t="n">
         <v>632.7318453389136</v>
@@ -9184,7 +9184,7 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q17" t="n">
-        <v>414.4388617681339</v>
+        <v>414.4388617681334</v>
       </c>
       <c r="R17" t="n">
         <v>128.2784515920617</v>
@@ -9242,31 +9242,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K18" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L18" t="n">
         <v>723.8803540323523</v>
       </c>
       <c r="M18" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N18" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O18" t="n">
-        <v>605.6544519663084</v>
+        <v>57.751479</v>
       </c>
       <c r="P18" t="n">
-        <v>54.25963500280375</v>
+        <v>415.2474391004466</v>
       </c>
       <c r="Q18" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R18" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9479,22 +9479,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K21" t="n">
-        <v>516.2361426485535</v>
+        <v>359.1535642812674</v>
       </c>
       <c r="L21" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M21" t="n">
-        <v>60.86256676342306</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N21" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O21" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P21" t="n">
         <v>54.25963500280375</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>330.076592815888</v>
+        <v>330.0765928158882</v>
       </c>
       <c r="K23" t="n">
         <v>632.7318453389136</v>
@@ -9716,31 +9716,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L24" t="n">
-        <v>56.11452381084905</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M24" t="n">
-        <v>531.1743980747688</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N24" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O24" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P24" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q24" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R24" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9953,31 +9953,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L27" t="n">
-        <v>56.11452381084905</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M27" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N27" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O27" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P27" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q27" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R27" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10190,31 +10190,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L30" t="n">
-        <v>56.11452381084905</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M30" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N30" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O30" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P30" t="n">
-        <v>558.8606699624394</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q30" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R30" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>330.0765928158882</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K32" t="n">
         <v>632.7318453389136</v>
@@ -10606,10 +10606,10 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q35" t="n">
-        <v>414.4388617681339</v>
+        <v>414.4388617681334</v>
       </c>
       <c r="R35" t="n">
-        <v>128.2784515920618</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,31 +10664,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
-        <v>55.82578278461539</v>
+        <v>309.8442573638428</v>
       </c>
       <c r="L36" t="n">
         <v>723.8803540323523</v>
       </c>
       <c r="M36" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N36" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O36" t="n">
-        <v>605.6544519663084</v>
+        <v>57.751479</v>
       </c>
       <c r="P36" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q36" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R36" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10901,7 +10901,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
         <v>55.82578278461539</v>
@@ -10910,22 +10910,22 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M39" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N39" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O39" t="n">
-        <v>390.9373608629449</v>
+        <v>97.05286247586417</v>
       </c>
       <c r="P39" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q39" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R39" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R41" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,13 +11138,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
-        <v>491.1608819079409</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L42" t="n">
-        <v>56.11452381084905</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M42" t="n">
         <v>57.56428373841742</v>
@@ -11153,7 +11153,7 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O42" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P42" t="n">
         <v>621.6393243851574</v>
@@ -11162,7 +11162,7 @@
         <v>410.0708656603775</v>
       </c>
       <c r="R42" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -23421,22 +23421,22 @@
         <v>139.8834969875627</v>
       </c>
       <c r="D13" t="n">
-        <v>128.4007565039811</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>58.96934020983863</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>133.4858729041767</v>
       </c>
       <c r="G13" t="n">
-        <v>136.078945437374</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>85.68364371037913</v>
+        <v>85.6836437103791</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>76.66901603131728</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23478,7 +23478,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>246.7800261198764</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23652,22 +23652,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>156.323767603766</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>139.8834969875627</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>128.4007565039811</v>
       </c>
       <c r="E16" t="n">
-        <v>129.8027652540257</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>133.4858729041767</v>
       </c>
       <c r="G16" t="n">
-        <v>96.00811468854968</v>
+        <v>136.078945437374</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>54.92104941501636</v>
+        <v>54.92104941501635</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23715,13 +23715,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>192.949799197745</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>192.9893998987849</v>
       </c>
     </row>
     <row r="17">
@@ -23892,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>51.84035121586527</v>
       </c>
       <c r="D19" t="n">
         <v>128.4007565039811</v>
@@ -23907,10 +23907,10 @@
         <v>136.078945437374</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>118.6124389162599</v>
       </c>
       <c r="I19" t="n">
-        <v>85.68364371037913</v>
+        <v>85.6836437103791</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>54.92104941501635</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>32.38443964835662</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>192.9893998987849</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24126,19 +24126,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>156.323767603766</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>139.8834969875627</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>20.21658367395386</v>
       </c>
       <c r="G22" t="n">
         <v>136.078945437374</v>
@@ -24177,7 +24177,7 @@
         <v>54.92104941501635</v>
       </c>
       <c r="S22" t="n">
-        <v>147.3224812867199</v>
+        <v>155.0289087125508</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24366,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>32.89038794068819</v>
+        <v>139.8834969875627</v>
       </c>
       <c r="D25" t="n">
         <v>128.4007565039811</v>
@@ -24375,16 +24375,16 @@
         <v>129.8027652540257</v>
       </c>
       <c r="F25" t="n">
-        <v>133.4858729041767</v>
+        <v>131.1263708428584</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>136.078945437374</v>
       </c>
       <c r="H25" t="n">
         <v>118.6124389162599</v>
       </c>
       <c r="I25" t="n">
-        <v>85.68364371037912</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>54.92104941501636</v>
+        <v>54.92104941501635</v>
       </c>
       <c r="S25" t="n">
-        <v>155.0289087125508</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24600,25 +24600,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>156.323767603766</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>139.8834969875627</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E28" t="n">
-        <v>21.06676182313714</v>
+        <v>129.8027652540257</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>133.4858729041767</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>97.30297357976454</v>
       </c>
       <c r="H28" t="n">
-        <v>118.6124389162599</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>54.92104941501636</v>
+        <v>54.92104941501635</v>
       </c>
       <c r="S28" t="n">
         <v>155.0289087125508</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>192.9893998987849</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>156.323767603766</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>139.8834969875627</v>
       </c>
       <c r="D31" t="n">
         <v>128.4007565039811</v>
@@ -24849,16 +24849,16 @@
         <v>129.8027652540257</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>133.4858729041767</v>
       </c>
       <c r="G31" t="n">
         <v>136.078945437374</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>16.14507755740685</v>
       </c>
       <c r="I31" t="n">
-        <v>85.68364371037912</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>155.0289087125508</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>9.546544948767348</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>192.9893998987849</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25077,22 +25077,22 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>139.8834969875627</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>129.8027652540257</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>133.4858729041767</v>
       </c>
       <c r="G34" t="n">
-        <v>136.078945437374</v>
+        <v>102.956849080693</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>118.6124389162599</v>
       </c>
       <c r="I34" t="n">
         <v>85.68364371037912</v>
@@ -25131,10 +25131,10 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>182.4258884270047</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>241.6479458835353</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>192.9893998987849</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25314,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>139.8834969875627</v>
       </c>
       <c r="D37" t="n">
         <v>128.4007565039811</v>
       </c>
       <c r="E37" t="n">
-        <v>57.68304522714807</v>
+        <v>129.8027652540257</v>
       </c>
       <c r="F37" t="n">
-        <v>133.4858729041766</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>118.6124389162599</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>85.68364371037912</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>54.92104941501636</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>207.6543099067269</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>107.1447115873282</v>
       </c>
       <c r="Y37" t="n">
         <v>192.9893998987849</v>
@@ -25548,25 +25548,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>156.323767603766</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>139.8834969875627</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>129.8027652540257</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>133.4858729041767</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>136.078945437374</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>118.6124389162599</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>52.561547353698</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25605,16 +25605,16 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>250.4712242529991</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>225.569349707738</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>206.4614817925755</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25630,7 +25630,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>45.84716204233354</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25648,7 +25648,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>3.083197172522915</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25693,7 +25693,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25788,16 +25788,16 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
         <v>165.577887163712</v>
@@ -25833,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>98.62125870697861</v>
+        <v>170.5352159497216</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="44">
@@ -25882,7 +25882,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>222.4997066824609</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25930,7 +25930,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>222.4997066824612</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26022,19 +26022,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>68.63432808836721</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>48.88430168022963</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.577887163712</v>
@@ -26076,7 +26076,7 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>621878.264268213</v>
+        <v>621878.2642682128</v>
       </c>
     </row>
     <row r="3">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>654506.0559692238</v>
+        <v>654506.0559692236</v>
       </c>
     </row>
     <row r="6">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>654506.0559692236</v>
+        <v>654506.0559692238</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>654506.0559692236</v>
+        <v>654506.0559692238</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>654506.0559692236</v>
+        <v>654506.0559692238</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>654506.0559692238</v>
+        <v>654506.0559692236</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>654506.0559692236</v>
+        <v>654506.0559692238</v>
       </c>
     </row>
     <row r="15">
@@ -26316,37 +26316,37 @@
         <v>586376.6149168451</v>
       </c>
       <c r="C2" t="n">
-        <v>586376.6149168452</v>
+        <v>586376.6149168446</v>
       </c>
       <c r="D2" t="n">
-        <v>586376.614916845</v>
+        <v>586376.6149168451</v>
       </c>
       <c r="E2" t="n">
-        <v>568257.9771323322</v>
+        <v>568257.977132332</v>
       </c>
       <c r="F2" t="n">
+        <v>568257.977132332</v>
+      </c>
+      <c r="G2" t="n">
         <v>568257.9771323323</v>
       </c>
-      <c r="G2" t="n">
-        <v>568257.977132332</v>
-      </c>
       <c r="H2" t="n">
-        <v>568257.977132332</v>
+        <v>568257.9771323318</v>
       </c>
       <c r="I2" t="n">
         <v>568257.9771323317</v>
       </c>
       <c r="J2" t="n">
-        <v>568257.977132332</v>
+        <v>568257.9771323322</v>
       </c>
       <c r="K2" t="n">
-        <v>568257.9771323319</v>
+        <v>568257.9771323317</v>
       </c>
       <c r="L2" t="n">
         <v>568257.9771323318</v>
       </c>
       <c r="M2" t="n">
-        <v>568257.9771323317</v>
+        <v>568257.9771323319</v>
       </c>
       <c r="N2" t="n">
         <v>568257.9771323319</v>
@@ -26365,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>143124.2752108471</v>
+        <v>143124.2752108469</v>
       </c>
       <c r="C3" t="n">
-        <v>30686.46086668769</v>
+        <v>30686.46086668794</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26389,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>135342.0294691541</v>
+        <v>135342.0294691539</v>
       </c>
       <c r="K3" t="n">
-        <v>24445.77426110915</v>
+        <v>24445.77426110935</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>248795.5093150306</v>
+        <v>248795.5093150307</v>
       </c>
       <c r="C4" t="n">
+        <v>232373.271303389</v>
+      </c>
+      <c r="D4" t="n">
         <v>232373.2713033891</v>
-      </c>
-      <c r="D4" t="n">
-        <v>232373.271303389</v>
       </c>
       <c r="E4" t="n">
         <v>148366.1238023682</v>
@@ -26450,7 +26450,7 @@
         <v>148366.1238023682</v>
       </c>
       <c r="M4" t="n">
-        <v>148366.1238023683</v>
+        <v>148366.1238023682</v>
       </c>
       <c r="N4" t="n">
         <v>148366.1238023682</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59594.05390742952</v>
+        <v>59594.05390742948</v>
       </c>
       <c r="C5" t="n">
         <v>65369.06507849755</v>
@@ -26502,7 +26502,7 @@
         <v>73345.15677686482</v>
       </c>
       <c r="M5" t="n">
-        <v>73345.15677686484</v>
+        <v>73345.15677686482</v>
       </c>
       <c r="N5" t="n">
         <v>73345.15677686482</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>134862.7764835379</v>
+        <v>134862.776483538</v>
       </c>
       <c r="C6" t="n">
-        <v>257947.8176682709</v>
+        <v>257947.8176682701</v>
       </c>
       <c r="D6" t="n">
         <v>288634.2785349584</v>
       </c>
       <c r="E6" t="n">
-        <v>130817.7802725856</v>
+        <v>130767.450723184</v>
       </c>
       <c r="F6" t="n">
-        <v>346546.6965530993</v>
+        <v>346496.3670036976</v>
       </c>
       <c r="G6" t="n">
-        <v>346546.696553099</v>
+        <v>346496.3670036978</v>
       </c>
       <c r="H6" t="n">
-        <v>346546.696553099</v>
+        <v>346496.3670036973</v>
       </c>
       <c r="I6" t="n">
-        <v>346546.6965530986</v>
+        <v>346496.3670036973</v>
       </c>
       <c r="J6" t="n">
-        <v>211204.6670839449</v>
+        <v>211154.3375345438</v>
       </c>
       <c r="K6" t="n">
-        <v>322100.9222919897</v>
+        <v>322050.5927425879</v>
       </c>
       <c r="L6" t="n">
-        <v>346546.6965530988</v>
+        <v>346496.3670036974</v>
       </c>
       <c r="M6" t="n">
-        <v>186188.2460524159</v>
+        <v>186137.9165030147</v>
       </c>
       <c r="N6" t="n">
-        <v>346546.696553099</v>
+        <v>346496.3670036975</v>
       </c>
       <c r="O6" t="n">
-        <v>331946.2969327963</v>
+        <v>331765.7163401471</v>
       </c>
       <c r="P6" t="n">
-        <v>331946.2969327963</v>
+        <v>331765.7163401472</v>
       </c>
     </row>
   </sheetData>
@@ -26694,34 +26694,34 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>29.49894172633798</v>
+        <v>29.498941726338</v>
       </c>
       <c r="F2" t="n">
-        <v>29.49894172633798</v>
+        <v>29.498941726338</v>
       </c>
       <c r="G2" t="n">
-        <v>29.49894172633798</v>
+        <v>29.498941726338</v>
       </c>
       <c r="H2" t="n">
         <v>29.498941726338</v>
       </c>
       <c r="I2" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="J2" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="K2" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="L2" t="n">
         <v>29.49894172633799</v>
       </c>
       <c r="M2" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="N2" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>427.0798340037751</v>
+        <v>427.0798340037743</v>
       </c>
       <c r="C4" t="n">
         <v>522.0635703700256</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>29.49894172633798</v>
+        <v>29.498941726338</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27011,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>427.0798340037751</v>
+        <v>427.0798340037743</v>
       </c>
       <c r="C4" t="n">
-        <v>94.98373636625047</v>
+        <v>94.98373636625124</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27035,10 +27035,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>427.0798340037751</v>
+        <v>427.0798340037742</v>
       </c>
       <c r="K4" t="n">
-        <v>94.98373636625047</v>
+        <v>94.98373636625124</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.49894172633798</v>
+        <v>29.498941726338</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27257,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>427.0798340037751</v>
+        <v>427.0798340037743</v>
       </c>
       <c r="K4" t="n">
-        <v>94.98373636625047</v>
+        <v>94.98373636625124</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>72.29635103004222</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,7 +27432,7 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
-        <v>219.9844192126098</v>
+        <v>200.356795360685</v>
       </c>
       <c r="U2" t="n">
         <v>254.489886823085</v>
@@ -27444,10 +27444,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27460,7 +27460,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>82.65473503637773</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27475,7 +27475,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>70.03974083464111</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>20.54110546596223</v>
@@ -27508,13 +27508,13 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>157.7484451748619</v>
       </c>
       <c r="U3" t="n">
-        <v>195.3773027531635</v>
+        <v>83.41322366248924</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -27536,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>169.3824387139007</v>
+        <v>90.58718002798217</v>
       </c>
       <c r="D4" t="n">
         <v>157.8996982303191</v>
@@ -27587,22 +27587,22 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>113.0533915955077</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27615,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>400</v>
+        <v>0.8626360446222066</v>
       </c>
       <c r="C5" t="n">
-        <v>11.48287933845654</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27666,16 +27666,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>379.9226978561831</v>
@@ -27684,7 +27684,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27782,16 +27782,16 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
         <v>115.1825854367171</v>
@@ -27824,25 +27824,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>269.6473178582395</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>41.88054861921438</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27855,19 +27855,19 @@
         <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>358.0986711748116</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>365.6721757243775</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>307.7994123985592</v>
@@ -27903,16 +27903,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
         <v>379.9226978561831</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
         <v>169.3824387139007</v>
@@ -28019,10 +28019,10 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
         <v>165.577887163712</v>
@@ -28031,7 +28031,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28061,22 +28061,22 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>237.1532516330649</v>
+        <v>8.893130557884689</v>
       </c>
       <c r="U10" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>23.31041191585678</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28089,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>29.49894172633798</v>
+        <v>29.498941726338</v>
       </c>
       <c r="C11" t="n">
-        <v>29.49894172633798</v>
+        <v>29.498941726338</v>
       </c>
       <c r="D11" t="n">
-        <v>29.49894172633798</v>
+        <v>29.498941726338</v>
       </c>
       <c r="E11" t="n">
-        <v>29.49894172633798</v>
+        <v>29.498941726338</v>
       </c>
       <c r="F11" t="n">
-        <v>29.49894172633798</v>
+        <v>29.498941726338</v>
       </c>
       <c r="G11" t="n">
-        <v>29.49894172633798</v>
+        <v>29.498941726338</v>
       </c>
       <c r="H11" t="n">
-        <v>29.49894172633798</v>
+        <v>29.498941726338</v>
       </c>
       <c r="I11" t="n">
-        <v>29.49894172633798</v>
+        <v>29.498941726338</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>29.49894172633798</v>
+        <v>29.498941726338</v>
       </c>
       <c r="T11" t="n">
-        <v>29.49894172633798</v>
+        <v>29.498941726338</v>
       </c>
       <c r="U11" t="n">
-        <v>29.49894172633798</v>
+        <v>29.498941726338</v>
       </c>
       <c r="V11" t="n">
-        <v>29.49894172633798</v>
+        <v>29.498941726338</v>
       </c>
       <c r="W11" t="n">
-        <v>29.49894172633798</v>
+        <v>29.498941726338</v>
       </c>
       <c r="X11" t="n">
-        <v>29.49894172633798</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Y11" t="n">
-        <v>29.49894172633798</v>
+        <v>29.498941726338</v>
       </c>
     </row>
     <row r="12">
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>29.49894172633798</v>
+        <v>29.498941726338</v>
       </c>
       <c r="C13" t="n">
-        <v>29.49894172633798</v>
+        <v>29.498941726338</v>
       </c>
       <c r="D13" t="n">
-        <v>29.49894172633798</v>
+        <v>29.498941726338</v>
       </c>
       <c r="E13" t="n">
-        <v>29.49894172633798</v>
+        <v>29.498941726338</v>
       </c>
       <c r="F13" t="n">
-        <v>29.49894172633798</v>
+        <v>29.498941726338</v>
       </c>
       <c r="G13" t="n">
-        <v>29.49894172633798</v>
+        <v>29.498941726338</v>
       </c>
       <c r="H13" t="n">
-        <v>29.49894172633798</v>
+        <v>29.498941726338</v>
       </c>
       <c r="I13" t="n">
-        <v>29.49894172633798</v>
+        <v>29.498941726338</v>
       </c>
       <c r="J13" t="n">
-        <v>29.49894172633798</v>
+        <v>29.498941726338</v>
       </c>
       <c r="K13" t="n">
-        <v>29.49894172633798</v>
+        <v>29.498941726338</v>
       </c>
       <c r="L13" t="n">
-        <v>29.49894172633798</v>
+        <v>29.498941726338</v>
       </c>
       <c r="M13" t="n">
-        <v>29.49894172633798</v>
+        <v>29.498941726338</v>
       </c>
       <c r="N13" t="n">
-        <v>29.49894172633798</v>
+        <v>29.498941726338</v>
       </c>
       <c r="O13" t="n">
-        <v>29.49894172633798</v>
+        <v>29.498941726338</v>
       </c>
       <c r="P13" t="n">
-        <v>29.49894172633798</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.49894172633798</v>
+        <v>29.498941726338</v>
       </c>
       <c r="R13" t="n">
-        <v>29.49894172633798</v>
+        <v>29.498941726338</v>
       </c>
       <c r="S13" t="n">
-        <v>29.49894172633798</v>
+        <v>29.498941726338</v>
       </c>
       <c r="T13" t="n">
-        <v>29.49894172633798</v>
+        <v>29.498941726338</v>
       </c>
       <c r="U13" t="n">
-        <v>29.49894172633798</v>
+        <v>29.498941726338</v>
       </c>
       <c r="V13" t="n">
-        <v>29.49894172633798</v>
+        <v>29.498941726338</v>
       </c>
       <c r="W13" t="n">
-        <v>29.49894172633798</v>
+        <v>29.498941726338</v>
       </c>
       <c r="X13" t="n">
-        <v>29.49894172633798</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Y13" t="n">
-        <v>29.49894172633798</v>
+        <v>29.498941726338</v>
       </c>
     </row>
     <row r="14">
@@ -28326,28 +28326,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>29.49894172633798</v>
+        <v>29.498941726338</v>
       </c>
       <c r="C14" t="n">
-        <v>29.49894172633798</v>
+        <v>29.498941726338</v>
       </c>
       <c r="D14" t="n">
-        <v>29.49894172633798</v>
+        <v>29.498941726338</v>
       </c>
       <c r="E14" t="n">
-        <v>29.49894172633798</v>
+        <v>29.498941726338</v>
       </c>
       <c r="F14" t="n">
-        <v>29.49894172633798</v>
+        <v>29.498941726338</v>
       </c>
       <c r="G14" t="n">
-        <v>29.49894172633798</v>
+        <v>29.498941726338</v>
       </c>
       <c r="H14" t="n">
-        <v>29.49894172633798</v>
+        <v>29.498941726338</v>
       </c>
       <c r="I14" t="n">
-        <v>29.49894172633798</v>
+        <v>29.498941726338</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>29.49894172633798</v>
+        <v>29.498941726338</v>
       </c>
       <c r="T14" t="n">
-        <v>29.49894172633798</v>
+        <v>29.498941726338</v>
       </c>
       <c r="U14" t="n">
-        <v>29.49894172633798</v>
+        <v>29.498941726338</v>
       </c>
       <c r="V14" t="n">
-        <v>29.49894172633798</v>
+        <v>29.498941726338</v>
       </c>
       <c r="W14" t="n">
-        <v>29.49894172633798</v>
+        <v>29.498941726338</v>
       </c>
       <c r="X14" t="n">
-        <v>29.49894172633798</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Y14" t="n">
-        <v>29.49894172633798</v>
+        <v>29.498941726338</v>
       </c>
     </row>
     <row r="15">
@@ -28484,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>29.49894172633798</v>
+        <v>29.498941726338</v>
       </c>
       <c r="C16" t="n">
-        <v>29.49894172633798</v>
+        <v>29.498941726338</v>
       </c>
       <c r="D16" t="n">
-        <v>29.49894172633798</v>
+        <v>29.498941726338</v>
       </c>
       <c r="E16" t="n">
-        <v>29.49894172633798</v>
+        <v>29.498941726338</v>
       </c>
       <c r="F16" t="n">
-        <v>29.49894172633798</v>
+        <v>29.498941726338</v>
       </c>
       <c r="G16" t="n">
-        <v>29.49894172633798</v>
+        <v>29.498941726338</v>
       </c>
       <c r="H16" t="n">
-        <v>29.49894172633798</v>
+        <v>29.498941726338</v>
       </c>
       <c r="I16" t="n">
-        <v>29.49894172633798</v>
+        <v>29.498941726338</v>
       </c>
       <c r="J16" t="n">
-        <v>29.49894172633798</v>
+        <v>29.498941726338</v>
       </c>
       <c r="K16" t="n">
-        <v>29.49894172633798</v>
+        <v>29.498941726338</v>
       </c>
       <c r="L16" t="n">
-        <v>29.49894172633798</v>
+        <v>29.498941726338</v>
       </c>
       <c r="M16" t="n">
-        <v>29.49894172633798</v>
+        <v>29.498941726338</v>
       </c>
       <c r="N16" t="n">
-        <v>29.49894172633798</v>
+        <v>29.498941726338</v>
       </c>
       <c r="O16" t="n">
-        <v>29.49894172633798</v>
+        <v>29.498941726338</v>
       </c>
       <c r="P16" t="n">
-        <v>29.49894172633798</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.49894172633798</v>
+        <v>29.498941726338</v>
       </c>
       <c r="R16" t="n">
-        <v>29.49894172633798</v>
+        <v>29.498941726338</v>
       </c>
       <c r="S16" t="n">
-        <v>29.49894172633798</v>
+        <v>29.498941726338</v>
       </c>
       <c r="T16" t="n">
-        <v>29.49894172633798</v>
+        <v>29.498941726338</v>
       </c>
       <c r="U16" t="n">
-        <v>29.49894172633798</v>
+        <v>29.498941726338</v>
       </c>
       <c r="V16" t="n">
-        <v>29.49894172633798</v>
+        <v>29.498941726338</v>
       </c>
       <c r="W16" t="n">
-        <v>29.49894172633798</v>
+        <v>29.498941726338</v>
       </c>
       <c r="X16" t="n">
-        <v>29.49894172633798</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Y16" t="n">
-        <v>29.49894172633798</v>
+        <v>29.498941726338</v>
       </c>
     </row>
     <row r="17">
@@ -28563,28 +28563,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>29.49894172633798</v>
+        <v>29.498941726338</v>
       </c>
       <c r="C17" t="n">
-        <v>29.49894172633798</v>
+        <v>29.498941726338</v>
       </c>
       <c r="D17" t="n">
-        <v>29.49894172633798</v>
+        <v>29.498941726338</v>
       </c>
       <c r="E17" t="n">
-        <v>29.49894172633798</v>
+        <v>29.498941726338</v>
       </c>
       <c r="F17" t="n">
-        <v>29.49894172633798</v>
+        <v>29.498941726338</v>
       </c>
       <c r="G17" t="n">
-        <v>29.49894172633798</v>
+        <v>29.498941726338</v>
       </c>
       <c r="H17" t="n">
-        <v>29.49894172633798</v>
+        <v>29.498941726338</v>
       </c>
       <c r="I17" t="n">
-        <v>29.49894172633798</v>
+        <v>29.498941726338</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28614,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>29.49894172633798</v>
+        <v>29.498941726338</v>
       </c>
       <c r="T17" t="n">
-        <v>29.49894172633798</v>
+        <v>29.498941726338</v>
       </c>
       <c r="U17" t="n">
-        <v>29.49894172633798</v>
+        <v>29.498941726338</v>
       </c>
       <c r="V17" t="n">
-        <v>29.49894172633798</v>
+        <v>29.498941726338</v>
       </c>
       <c r="W17" t="n">
-        <v>29.49894172633798</v>
+        <v>29.498941726338</v>
       </c>
       <c r="X17" t="n">
-        <v>29.49894172633798</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Y17" t="n">
-        <v>29.49894172633798</v>
+        <v>29.498941726338</v>
       </c>
     </row>
     <row r="18">
@@ -28721,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>29.49894172633798</v>
+        <v>29.498941726338</v>
       </c>
       <c r="C19" t="n">
-        <v>29.49894172633798</v>
+        <v>29.498941726338</v>
       </c>
       <c r="D19" t="n">
-        <v>29.49894172633798</v>
+        <v>29.498941726338</v>
       </c>
       <c r="E19" t="n">
-        <v>29.49894172633798</v>
+        <v>29.498941726338</v>
       </c>
       <c r="F19" t="n">
-        <v>29.49894172633798</v>
+        <v>29.498941726338</v>
       </c>
       <c r="G19" t="n">
-        <v>29.49894172633798</v>
+        <v>29.498941726338</v>
       </c>
       <c r="H19" t="n">
-        <v>29.49894172633798</v>
+        <v>29.498941726338</v>
       </c>
       <c r="I19" t="n">
-        <v>29.49894172633798</v>
+        <v>29.498941726338</v>
       </c>
       <c r="J19" t="n">
-        <v>29.49894172633798</v>
+        <v>29.498941726338</v>
       </c>
       <c r="K19" t="n">
-        <v>29.49894172633798</v>
+        <v>29.498941726338</v>
       </c>
       <c r="L19" t="n">
-        <v>29.49894172633798</v>
+        <v>29.498941726338</v>
       </c>
       <c r="M19" t="n">
-        <v>29.49894172633798</v>
+        <v>29.498941726338</v>
       </c>
       <c r="N19" t="n">
-        <v>29.49894172633798</v>
+        <v>29.498941726338</v>
       </c>
       <c r="O19" t="n">
-        <v>29.49894172633798</v>
+        <v>29.498941726338</v>
       </c>
       <c r="P19" t="n">
-        <v>29.49894172633798</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.49894172633798</v>
+        <v>29.498941726338</v>
       </c>
       <c r="R19" t="n">
-        <v>29.49894172633798</v>
+        <v>29.498941726338</v>
       </c>
       <c r="S19" t="n">
-        <v>29.49894172633798</v>
+        <v>29.498941726338</v>
       </c>
       <c r="T19" t="n">
-        <v>29.49894172633798</v>
+        <v>29.498941726338</v>
       </c>
       <c r="U19" t="n">
-        <v>29.49894172633798</v>
+        <v>29.498941726338</v>
       </c>
       <c r="V19" t="n">
-        <v>29.49894172633798</v>
+        <v>29.498941726338</v>
       </c>
       <c r="W19" t="n">
-        <v>29.49894172633798</v>
+        <v>29.498941726338</v>
       </c>
       <c r="X19" t="n">
-        <v>29.49894172633798</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Y19" t="n">
-        <v>29.49894172633798</v>
+        <v>29.498941726338</v>
       </c>
     </row>
     <row r="20">
@@ -29037,28 +29037,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="C23" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="D23" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="E23" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="F23" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633719</v>
       </c>
       <c r="G23" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="H23" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="I23" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29088,25 +29088,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="T23" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="U23" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="V23" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="W23" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="X23" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Y23" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
     </row>
     <row r="24">
@@ -29195,76 +29195,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="C25" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="D25" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="E25" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="F25" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="G25" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="H25" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="I25" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="J25" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="K25" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="L25" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="M25" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="N25" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="O25" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="P25" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Q25" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="R25" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="S25" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="T25" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="U25" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="V25" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="W25" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="X25" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Y25" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
     </row>
     <row r="26">
@@ -29274,28 +29274,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="C26" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="D26" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="E26" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="F26" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="G26" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="H26" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="I26" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29325,25 +29325,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="T26" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="U26" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="V26" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="W26" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="X26" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Y26" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
     </row>
     <row r="27">
@@ -29432,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="C28" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="D28" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="E28" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="F28" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="G28" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="H28" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="I28" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="J28" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="K28" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="L28" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="M28" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="N28" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="O28" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="P28" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Q28" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="R28" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="S28" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="T28" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="U28" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="V28" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="W28" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="X28" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Y28" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
     </row>
     <row r="29">
@@ -29511,28 +29511,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="C29" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="D29" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="E29" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="F29" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="G29" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="H29" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="I29" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29562,25 +29562,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="T29" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="U29" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="V29" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="W29" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="X29" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Y29" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
     </row>
     <row r="30">
@@ -29669,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="C31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="D31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="E31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="F31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="G31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="H31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="I31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="J31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="K31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="L31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="M31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="N31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="O31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="P31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Q31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="R31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="S31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="T31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="U31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="V31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="W31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="X31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Y31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
     </row>
     <row r="32">
@@ -29985,28 +29985,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="C35" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="D35" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="E35" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="F35" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="G35" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="H35" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="I35" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30036,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="T35" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="U35" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="V35" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="W35" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="X35" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="Y35" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633799</v>
       </c>
     </row>
     <row r="36">
@@ -30143,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="C37" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="D37" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="E37" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="F37" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="G37" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="H37" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="I37" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="J37" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="K37" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="L37" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="M37" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="N37" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="O37" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="P37" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="Q37" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="R37" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="S37" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="T37" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="U37" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="V37" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="W37" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="X37" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="Y37" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633799</v>
       </c>
     </row>
     <row r="38">
@@ -30222,28 +30222,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="C38" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="D38" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633736</v>
       </c>
       <c r="E38" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="F38" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="G38" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="H38" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="I38" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30273,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="T38" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="U38" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="V38" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="W38" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="X38" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="Y38" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
     </row>
     <row r="39">
@@ -30380,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="C40" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="D40" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="E40" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="F40" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="G40" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="H40" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="I40" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="J40" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="K40" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="L40" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="M40" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="N40" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="O40" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="P40" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="Q40" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="R40" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="S40" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="T40" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="U40" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="V40" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="W40" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="X40" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="Y40" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
     </row>
     <row r="41">
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K2" t="n">
-        <v>427.0798340037751</v>
+        <v>427.0798340037743</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>427.0798340037743</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>214.7795495098092</v>
       </c>
       <c r="N2" t="n">
-        <v>409.8240831349356</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>427.0798340037751</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>427.0798340037751</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34780,28 +34780,28 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>427.0798340037743</v>
       </c>
       <c r="L3" t="n">
-        <v>427.0798340037751</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>427.0798340037751</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>26.58773561310321</v>
       </c>
       <c r="O3" t="n">
-        <v>409.8240831349356</v>
+        <v>427.0798340037743</v>
       </c>
       <c r="P3" t="n">
-        <v>427.0798340037751</v>
+        <v>427.0798340037743</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34935,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="M5" t="n">
-        <v>400.9092955204429</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>135.5987266329976</v>
       </c>
       <c r="Q5" t="n">
         <v>324.4050573689818</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K6" t="n">
         <v>460.4103598639381</v>
@@ -35023,16 +35023,16 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>506.6900639491208</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
         <v>522.0635703700256</v>
-      </c>
-      <c r="N6" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>179.3869557635734</v>
       </c>
       <c r="Q6" t="n">
         <v>353.3782471555388</v>
@@ -35181,7 +35181,7 @@
         <v>522.0635703700256</v>
       </c>
       <c r="M8" t="n">
-        <v>400.9092955204429</v>
+        <v>203.2507825193993</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -35190,10 +35190,10 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q8" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>40.9663087773382</v>
@@ -35251,19 +35251,19 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L9" t="n">
-        <v>522.0635703700256</v>
+        <v>338.0047407346343</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>500.9700927793178</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>522.0635703700256</v>
@@ -35275,7 +35275,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35412,7 +35412,7 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K11" t="n">
-        <v>543.5954556656966</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L11" t="n">
         <v>719.7892927396343</v>
@@ -35488,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M12" t="n">
-        <v>473.6101143363514</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>43.72373910533851</v>
+        <v>43.72373910533852</v>
       </c>
       <c r="K13" t="n">
         <v>185.6124040720329</v>
@@ -35588,7 +35588,7 @@
         <v>237.2519116754414</v>
       </c>
       <c r="Q13" t="n">
-        <v>95.68887081978326</v>
+        <v>95.68887081978329</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>256.7530014825801</v>
+        <v>256.7530014825803</v>
       </c>
       <c r="K14" t="n">
         <v>543.5954556656965</v>
@@ -35670,7 +35670,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R14" t="n">
-        <v>40.96630877733828</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>851.4920007015825</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="N15" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>43.72373910533851</v>
+        <v>43.72373910533852</v>
       </c>
       <c r="K16" t="n">
         <v>185.6124040720329</v>
@@ -35825,7 +35825,7 @@
         <v>237.2519116754414</v>
       </c>
       <c r="Q16" t="n">
-        <v>95.68887081978326</v>
+        <v>95.68887081978329</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>256.7530014825803</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K17" t="n">
         <v>543.5954556656965</v>
@@ -35904,7 +35904,7 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q17" t="n">
-        <v>324.4050573689818</v>
+        <v>324.4050573689814</v>
       </c>
       <c r="R17" t="n">
         <v>40.9663087773382</v>
@@ -35962,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L18" t="n">
         <v>667.7658302215033</v>
       </c>
       <c r="M18" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>547.9029729663084</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>360.9878040976428</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>43.72373910533851</v>
+        <v>43.72373910533852</v>
       </c>
       <c r="K19" t="n">
         <v>185.6124040720329</v>
@@ -36062,7 +36062,7 @@
         <v>237.2519116754414</v>
       </c>
       <c r="Q19" t="n">
-        <v>95.68887081978326</v>
+        <v>95.68887081978329</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36199,22 +36199,22 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>460.4103598639381</v>
+        <v>303.3277814966521</v>
       </c>
       <c r="L21" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>3.298283025005639</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O21" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>256.7530014825801</v>
+        <v>256.7530014825803</v>
       </c>
       <c r="K23" t="n">
         <v>543.5954556656965</v>
@@ -36436,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M24" t="n">
-        <v>473.6101143363514</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36536,7 +36536,7 @@
         <v>237.2519116754414</v>
       </c>
       <c r="Q25" t="n">
-        <v>95.68887081978328</v>
+        <v>95.68887081978329</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36673,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M27" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36773,7 +36773,7 @@
         <v>237.2519116754414</v>
       </c>
       <c r="Q28" t="n">
-        <v>95.68887081978328</v>
+        <v>95.68887081978329</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36910,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M30" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>504.6010349596356</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37010,7 +37010,7 @@
         <v>237.2519116754414</v>
       </c>
       <c r="Q31" t="n">
-        <v>95.68887081978328</v>
+        <v>95.68887081978329</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>256.7530014825803</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K32" t="n">
         <v>543.5954556656965</v>
@@ -37326,10 +37326,10 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q35" t="n">
-        <v>324.4050573689818</v>
+        <v>324.4050573689814</v>
       </c>
       <c r="R35" t="n">
-        <v>40.96630877733828</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>254.0184745792274</v>
       </c>
       <c r="L36" t="n">
         <v>667.7658302215033</v>
       </c>
       <c r="M36" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>547.9029729663084</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>43.72373910533855</v>
+        <v>43.72373910533852</v>
       </c>
       <c r="K37" t="n">
         <v>185.6124040720329</v>
@@ -37472,19 +37472,19 @@
         <v>292.0212652415507</v>
       </c>
       <c r="M37" t="n">
-        <v>321.6848573227959</v>
+        <v>321.6848573227958</v>
       </c>
       <c r="N37" t="n">
         <v>313.174479498308</v>
       </c>
       <c r="O37" t="n">
-        <v>291.6813763995443</v>
+        <v>291.6813763995442</v>
       </c>
       <c r="P37" t="n">
         <v>237.2519116754414</v>
       </c>
       <c r="Q37" t="n">
-        <v>95.68887081978332</v>
+        <v>95.68887081978328</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -37630,22 +37630,22 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O39" t="n">
-        <v>333.1858818629449</v>
+        <v>39.30138347586418</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>43.7237391053385</v>
+        <v>43.72373910533852</v>
       </c>
       <c r="K40" t="n">
         <v>185.6124040720329</v>
@@ -37721,7 +37721,7 @@
         <v>237.2519116754414</v>
       </c>
       <c r="Q40" t="n">
-        <v>95.68887081978326</v>
+        <v>95.68887081978328</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R41" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,13 +37858,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K42" t="n">
-        <v>435.3350991233255</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -37873,7 +37873,7 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>567.3796893823536</v>
@@ -37882,7 +37882,7 @@
         <v>353.3782471555388</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
